--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11</v>
+        <v>28.454</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.86904799123317</v>
+        <v>29.1992469266064</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.86913725344955</v>
+        <v>32.64680882907773</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.86903112651385</v>
+        <v>32.16602710156102</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.86660281039749</v>
+        <v>29.98300017688266</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.86658664722704</v>
+        <v>30.53438149279193</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.8665772926403</v>
+        <v>32.87723040264354</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.86890174333416</v>
+        <v>31.97652046561021</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.8688521483493</v>
+        <v>30.70759766237514</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.86880272569442</v>
+        <v>31.6077411362424</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.85922247217184</v>
+        <v>31.43233042595145</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.85924328004288</v>
+        <v>31.93239468329814</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.85922157063038</v>
+        <v>31.97186319178141</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.85858436185914</v>
+        <v>30.70635890249174</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.85864035261731</v>
+        <v>32.68065430785884</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.85858688580041</v>
+        <v>32.3642447267302</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.85607199895235</v>
+        <v>30.43691255888345</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.85609158207875</v>
+        <v>32.29556851018526</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.85607552933311</v>
+        <v>32.12502775984082</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32.85203776424888</v>
+        <v>27.02111015417966</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.85211882643339</v>
+        <v>30.11563617133504</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.85217082824274</v>
+        <v>31.43570584833983</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.85586438569064</v>
+        <v>30.55033156194359</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.85579770781001</v>
+        <v>30.15602994819628</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.86591128916614</v>
+        <v>26.8026296966494</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.86613492977018</v>
+        <v>34.9865713820461</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.86610031263407</v>
+        <v>33.9989646803783</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.86294304087782</v>
+        <v>31.99671198377559</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.86284441804327</v>
+        <v>33.22375970383107</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.86282133352903</v>
+        <v>34.14806890412935</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.86564419909416</v>
+        <v>34.9295252059461</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.86553227820664</v>
+        <v>33.50698410291099</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.86553191944487</v>
+        <v>34.2974609772585</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.85442334690747</v>
+        <v>35.47919985618857</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.85443971612973</v>
+        <v>36.63840236314923</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.85443001987212</v>
+        <v>36.58630220782544</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.85368975683751</v>
+        <v>33.14212553659496</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.85375969489835</v>
+        <v>37.03081900627302</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.85372520285918</v>
+        <v>36.5985905428054</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32.85171359438137</v>
+        <v>25.81923120395928</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.85215383878041</v>
+        <v>32.03396216397655</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.85210793097077</v>
+        <v>33.99811334926368</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32.84766841361317</v>
+        <v>26.81037197365055</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.84792740843007</v>
+        <v>31.25079676960686</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.8475730635711</v>
+        <v>31.54422300181831</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.8518816468245</v>
+        <v>32.30982999084708</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.86833281367149</v>
+        <v>26.16391573799908</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.8671279505194</v>
+        <v>34.34774398342434</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.86705397419841</v>
+        <v>33.28055079806423</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.86416099056755</v>
+        <v>31.83004823478211</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.8639310687215</v>
+        <v>32.92995687437927</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.86396611785216</v>
+        <v>34.24514323527754</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.86660509145994</v>
+        <v>34.92016373819145</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.86647388322513</v>
+        <v>33.32407601501234</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.86651140797633</v>
+        <v>34.32370146212158</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.85619229492799</v>
+        <v>34.52284423330789</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.85591962594076</v>
+        <v>35.6392065613223</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.85591851932</v>
+        <v>35.59684003769588</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>32.85529202549677</v>
+        <v>31.68331598238176</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.85533391326954</v>
+        <v>35.51565972453089</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.85528903672521</v>
+        <v>35.02659450520978</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32.85317283876732</v>
+        <v>25.93820597387551</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.85365948766518</v>
+        <v>31.57249337019203</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.8536374608065</v>
+        <v>34.309997275291</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.84938756352373</v>
+        <v>26.22101661458716</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.84935505618682</v>
+        <v>30.63739571563778</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.84903134783833</v>
+        <v>31.494518839494</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.85337796087532</v>
+        <v>32.65958462103013</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.85305862514142</v>
+        <v>31.62810914726292</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.87297550547056</v>
+        <v>27.75959947171701</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.8731242117892</v>
+        <v>32.92025945289355</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>32.87309516072406</v>
+        <v>32.87123372540562</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.87118841110456</v>
+        <v>31.31163991932944</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.87109537480181</v>
+        <v>32.8166671596258</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.87111554425746</v>
+        <v>34.2631056761456</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.87295806743485</v>
+        <v>32.80049477249728</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.87286473891415</v>
+        <v>32.89873305147075</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.87288038457773</v>
+        <v>33.5828733950725</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.86545981445934</v>
+        <v>33.99133278123222</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.86540630440562</v>
+        <v>34.8373113549317</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.86539268432247</v>
+        <v>35.0079292453761</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.86490683250933</v>
+        <v>32.13102501004985</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.8649813918043</v>
+        <v>34.80638794333291</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.86493452496497</v>
+        <v>34.65540707739238</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>32.86266527910022</v>
+        <v>27.48426118357692</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.86289887499735</v>
+        <v>31.73220681279686</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.86291190508788</v>
+        <v>33.66290079215062</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.85977481883757</v>
+        <v>27.25753118626087</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32.85976737977204</v>
+        <v>32.00377785534745</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.85961564989718</v>
+        <v>32.76936054795822</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.8627481719609</v>
+        <v>31.26415187009545</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.86258191369383</v>
+        <v>31.78306037515494</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.85515085443198</v>
+        <v>31.05817200452031</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.84021476025774</v>
+        <v>30.76259486925069</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.84020751609454</v>
+        <v>31.4557748582778</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.8401915773766</v>
+        <v>31.52421044450292</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.83927159181569</v>
+        <v>30.12954364891177</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32.83927770040922</v>
+        <v>31.18995047059251</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.83923308681618</v>
+        <v>30.88237791122749</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.85176026971262</v>
+        <v>30.3221247355037</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.85155780671196</v>
+        <v>32.45684949337164</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.85148394110868</v>
+        <v>32.66933155361924</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.84704893391356</v>
+        <v>26.37260874541187</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.84707427036702</v>
+        <v>30.23875397332316</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.84711851610661</v>
+        <v>31.7178162347462</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.85148308649269</v>
+        <v>30.92936920823139</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.85122149350502</v>
+        <v>30.47316068410097</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.8512512419079</v>
+        <v>30.72328645131894</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.83324743527594</v>
+        <v>31.45768342127163</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>32.83324308740674</v>
+        <v>32.27388444528643</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.83321452863451</v>
+        <v>32.43352872866465</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.83217444116145</v>
+        <v>30.73999814891245</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.83220631828731</v>
+        <v>31.65941295096953</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.83210318517842</v>
+        <v>31.68288057062372</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.85038116151888</v>
+        <v>30.98973315560146</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.83474938137183</v>
+        <v>32.62443999176351</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.83480214862831</v>
+        <v>33.55406282465292</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.83470762065733</v>
+        <v>33.76489185447534</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.83376963556132</v>
+        <v>30.96485517449951</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.83379011629092</v>
+        <v>33.28957810115136</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.83363917064566</v>
+        <v>33.84323334739855</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.8480317599949</v>
+        <v>25.84382160503973</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.8474563181671</v>
+        <v>33.74727950802107</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>32.84756803612685</v>
+        <v>35.64818294682696</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.84299140600211</v>
+        <v>27.19977279546638</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.84262959136896</v>
+        <v>32.31287939483688</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.8423188796561</v>
+        <v>31.88050248798218</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.84763181829612</v>
+        <v>33.78580761033025</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.84703914617247</v>
+        <v>34.59357084480552</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>32.84699887493922</v>
+        <v>32.72919294188485</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>32.82761196763234</v>
+        <v>34.91865616306166</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>32.82780550085062</v>
+        <v>36.15752713429319</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>32.82772530943851</v>
+        <v>36.37065413391361</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.82668587822039</v>
+        <v>32.55288100962699</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.8266520127801</v>
+        <v>35.88394183448813</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>32.82646717283973</v>
+        <v>36.48539001453364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>32.85298352685491</v>
+        <v>30.9815045859048</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.83644534210665</v>
+        <v>31.64950734129361</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.83637304482016</v>
+        <v>32.45472947883088</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.83629502406189</v>
+        <v>32.95451280599536</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.83539448225989</v>
+        <v>30.25024836186635</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.83537338978669</v>
+        <v>32.09350085984995</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>32.83529043581205</v>
+        <v>33.20283930678723</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.84940938441218</v>
+        <v>25.66580719249806</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.84907246429235</v>
+        <v>33.05364082369876</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.84919181326583</v>
+        <v>35.60613666588078</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.84457144240591</v>
+        <v>26.64316378908744</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.8443150792279</v>
+        <v>31.62846479709647</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>32.84397615744033</v>
+        <v>31.98865046398472</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.84908752993247</v>
+        <v>33.39375210515795</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.84860272276512</v>
+        <v>33.94242065058646</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.84853556558829</v>
+        <v>32.37302472352589</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>32.82982809518953</v>
+        <v>34.16194201292302</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.82994088094713</v>
+        <v>35.35148144132803</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.82986126473264</v>
+        <v>35.77212748850449</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.82886531153913</v>
+        <v>31.97665868234845</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.82883987481478</v>
+        <v>34.8807425160018</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.8286661300891</v>
+        <v>35.83364533766315</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.8619128856824</v>
+        <v>31.97033087809187</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.8502092995071</v>
+        <v>31.56159661323866</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.85022893255075</v>
+        <v>32.43222897992776</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.85019648261531</v>
+        <v>32.92452062806726</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>32.84946958341352</v>
+        <v>30.85724458025219</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>32.84945350967209</v>
+        <v>32.53041134899284</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.84944284862634</v>
+        <v>33.50042858770014</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>32.85984400838858</v>
+        <v>27.54365801417211</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.85961865024445</v>
+        <v>32.37594828383239</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.85957055372204</v>
+        <v>34.96582595426479</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.85635743020984</v>
+        <v>27.33899600054058</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>32.85625569017915</v>
+        <v>32.32969805717931</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.85610760162727</v>
+        <v>34.09556799963604</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.85971830555456</v>
+        <v>32.05388476788696</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.85945940306572</v>
+        <v>33.50049620948852</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.85940690669668</v>
+        <v>34.0733431970811</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>32.84547813179461</v>
+        <v>34.00555140078799</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.84564297332204</v>
+        <v>35.05765259168733</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>32.84559184861139</v>
+        <v>35.75195782835731</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>32.84474701094302</v>
+        <v>32.34784170361053</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.8448061500014</v>
+        <v>34.75488802533051</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.84470935698523</v>
+        <v>35.92108611273424</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>32.84860066392163</v>
+        <v>4.430536678613002</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.84858149546699</v>
+        <v>20.48918117681408</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.84822794683802</v>
+        <v>17.95933265775288</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.84335635306065</v>
+        <v>7.792760378769799</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.84319913946395</v>
+        <v>8.070898950219739</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.84322691500323</v>
+        <v>19.77708579906633</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.84791846363172</v>
+        <v>16.74221761620164</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.8478921227515</v>
+        <v>7.89287721477961</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.84777426353156</v>
+        <v>12.42256624433433</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.82816787621851</v>
+        <v>11.31024451894647</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.82809918283243</v>
+        <v>13.35147822080842</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.82802451755805</v>
+        <v>13.51779110708511</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.82683225547278</v>
+        <v>8.967415216614835</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.82687840584288</v>
+        <v>17.59928453867579</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.8267147937213</v>
+        <v>15.90645406673935</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.82269699281337</v>
+        <v>11.31720853978462</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.8224160015826</v>
+        <v>19.72509191539321</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.82221417858143</v>
+        <v>17.70546630766792</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.81583872163363</v>
+        <v>-5.875482198978737</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.81571398052389</v>
+        <v>10.1391843744332</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.81556450605722</v>
+        <v>15.66980513800657</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.82343690741427</v>
+        <v>11.19712512843664</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>32.82270420526051</v>
+        <v>7.69129180102335</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.84330255701717</v>
+        <v>-11.765904876664</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.8436640659793</v>
+        <v>24.53467331235839</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.84343374310214</v>
+        <v>19.12867511044695</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.83823094737295</v>
+        <v>8.607473334857136</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>32.83748670427482</v>
+        <v>9.198503441181462</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.83745987090655</v>
+        <v>14.41465427736941</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.84306242903302</v>
+        <v>21.25279903099737</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.8426474207134</v>
+        <v>9.045086186868378</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.8426279598206</v>
+        <v>11.37115283872861</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.82074733399027</v>
+        <v>17.83798588669871</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.82072232642635</v>
+        <v>22.24040338665076</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.82067793984974</v>
+        <v>22.09527847407319</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.81930271514906</v>
+        <v>9.082428815155602</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.81948522617433</v>
+        <v>25.11298618846538</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.81929808747761</v>
+        <v>22.70004860378824</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>32.81443089743004</v>
+        <v>-8.18111661717046</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>32.8157524510809</v>
+        <v>19.19367082447722</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.81560305330364</v>
+        <v>30.47403827055409</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.80883057648815</v>
+        <v>-4.985127908370956</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.80812703587132</v>
+        <v>11.71921851416126</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.8072248864596</v>
+        <v>14.70174059042509</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.81661212924046</v>
+        <v>23.25897647259121</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>32.81545876230111</v>
+        <v>13.93503182370797</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>32.84795650174669</v>
+        <v>-13.92701626350669</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.84582396326929</v>
+        <v>22.20834637548825</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.84551718341999</v>
+        <v>16.38107345104063</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.84059390740889</v>
+        <v>6.475258484218497</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>32.83989926470479</v>
+        <v>6.518396649812573</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.83994134374009</v>
+        <v>13.83642142054148</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.84522694883471</v>
+        <v>20.37859722792437</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>32.84475376750918</v>
+        <v>7.365187009379309</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>32.84473878412653</v>
+        <v>10.57624193233423</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.82420908585515</v>
+        <v>12.93017756911785</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.82406790013361</v>
+        <v>17.00688427713504</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.82404123374562</v>
+        <v>17.00259877001655</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.82274919126315</v>
+        <v>2.02812766903255</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>32.82294713642103</v>
+        <v>17.53933693629101</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.82277778001509</v>
+        <v>14.86931011152004</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.81719769440841</v>
+        <v>-7.140904193743488</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.81877023871796</v>
+        <v>16.69270499766221</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.81875658036775</v>
+        <v>31.50551018521776</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.81187908334098</v>
+        <v>-6.136900765507839</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.81117500938679</v>
+        <v>9.86072845256659</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.81041232338516</v>
+        <v>15.45486592301893</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.81939536702807</v>
+        <v>24.99015280462793</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.81819994652679</v>
+        <v>11.78734849353834</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.85628279565218</v>
+        <v>-7.776633984007852</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.85773699504288</v>
+        <v>13.87968614517927</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.85762573953869</v>
+        <v>11.72800048649572</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.85426231827641</v>
+        <v>-0.1228621281933826</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.85396107901261</v>
+        <v>1.862097223934789</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>32.85395448951221</v>
+        <v>9.167147974826808</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.85769407696441</v>
+        <v>9.83476613541335</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>32.85739240040313</v>
+        <v>4.15690056199568</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.85737454205123</v>
+        <v>5.96372402409979</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.8424186222918</v>
+        <v>5.514952190200624</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.84254998140729</v>
+        <v>8.189287994869169</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.8425108632899</v>
+        <v>8.756071704470241</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.8415214926485</v>
+        <v>-1.02533887681988</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.84169217894817</v>
+        <v>8.939884992754326</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.84157793459432</v>
+        <v>6.795262798323645</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.83637372056972</v>
+        <v>-2.389045662474707</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.83697605285241</v>
+        <v>14.97842615699155</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.83703274675381</v>
+        <v>24.17353061463641</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.83178902955264</v>
+        <v>-4.587499539229583</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>32.83138778493268</v>
+        <v>15.35039891567052</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.83104788474471</v>
+        <v>17.73658000204086</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.83760584671574</v>
+        <v>16.3510886333316</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>32.83683880204195</v>
+        <v>12.37884953375277</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.81868641480896</v>
+        <v>12.45198575925981</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.79105325261421</v>
+        <v>11.32885779785083</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.79155162191663</v>
+        <v>14.81993804487236</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.79150323394168</v>
+        <v>14.95327855333344</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.78969111023033</v>
+        <v>9.439201238917615</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>32.78962646469537</v>
+        <v>14.06377416167962</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.78951305162376</v>
+        <v>11.88297754614515</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.81423025867036</v>
+        <v>13.60313208690055</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>32.81305325211306</v>
+        <v>22.39250656134439</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.81283061031897</v>
+        <v>23.35785641976026</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.8049769429319</v>
+        <v>-9.409294421814842</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>32.80489475378892</v>
+        <v>10.16978170575812</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.80491638604728</v>
+        <v>16.68623041688038</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.81360561388616</v>
+        <v>16.27543577556157</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.81270085408541</v>
+        <v>11.30281904229031</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.81273703096642</v>
+        <v>11.27339677035609</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.77691308010004</v>
+        <v>15.33656980402759</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.77728188702159</v>
+        <v>18.93896635304419</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.77724867220008</v>
+        <v>19.68453209274007</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.7752676556315</v>
+        <v>13.17447021655233</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.77518324689334</v>
+        <v>15.98487195733513</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.77503918926194</v>
+        <v>15.96710335002045</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>32.80918517190305</v>
+        <v>8.865097522151025</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.78083162440035</v>
+        <v>12.41664678417466</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.78162515914281</v>
+        <v>15.81761709726704</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>32.78135118779011</v>
+        <v>17.50245320858085</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.77941335721431</v>
+        <v>6.486355851516205</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.77959532472548</v>
+        <v>14.38215348784736</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>32.77894752968041</v>
+        <v>18.52309358795128</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>32.80558281863026</v>
+        <v>-6.920373435546296</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>32.79578364651202</v>
+        <v>6.406729763219118</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.79528936828639</v>
+        <v>27.03790970512069</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.79455356174545</v>
+        <v>28.72406952429238</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.80523695072703</v>
+        <v>35.48844855293702</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.8047773767041</v>
+        <v>32.67068047671152</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.80492951154226</v>
+        <v>27.92234538214531</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.76439519420146</v>
+        <v>35.38647866408016</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>32.76477973246239</v>
+        <v>40.13745567129537</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.76457178525229</v>
+        <v>42.37401854390042</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.76297305062379</v>
+        <v>25.16092161797182</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.76312228635015</v>
+        <v>37.77909599586751</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32.76256022914032</v>
+        <v>43.85531078719583</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.81501463240241</v>
+        <v>10.12169791352668</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.78083910991001</v>
+        <v>8.775886525010492</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>32.78087782672204</v>
+        <v>11.30875256158129</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.78475528634484</v>
+        <v>14.23503319596799</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.7834246745335</v>
+        <v>4.136572551302816</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.78357254414669</v>
+        <v>9.000750760565026</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.78307294736629</v>
+        <v>15.83264621381041</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>32.80868860021384</v>
+        <v>-6.667672811219539</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.80815341853619</v>
+        <v>26.63106184392648</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.80817450675551</v>
+        <v>42.50188800023475</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>32.7986531665965</v>
+        <v>4.039764958467657</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.7984371265873</v>
+        <v>25.04735556868009</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.7975660809498</v>
+        <v>30.14263299756114</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32.80805203434787</v>
+        <v>35.38163338206746</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.80770673632554</v>
+        <v>32.13859151972423</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>32.80778125790657</v>
+        <v>28.4461956245555</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.76838891594549</v>
+        <v>33.34006995625165</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.76878088394834</v>
+        <v>38.14245030697866</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>32.7685799803444</v>
+        <v>41.28545059081831</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.76691615759167</v>
+        <v>23.36758878121627</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>32.7670574113676</v>
+        <v>34.45118205748871</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.76644580683408</v>
+        <v>42.07567536074386</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.83272655497199</v>
+        <v>13.35234053351743</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.80469770796196</v>
+        <v>8.906815777886735</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.80474058899187</v>
+        <v>11.86162249672119</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.81178855693604</v>
+        <v>13.89167614342998</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.81080561706528</v>
+        <v>7.405541570601606</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.81085980697053</v>
+        <v>12.10082372924458</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.81071410382955</v>
+        <v>17.05323953220966</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>32.83044380475287</v>
+        <v>1.751967448942576</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.83013152121227</v>
+        <v>25.51052375385753</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>32.83017500792146</v>
+        <v>36.90516026888917</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.82287709117351</v>
+        <v>0.09762514921838772</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.82300978387428</v>
+        <v>24.40863679604578</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.82267227226993</v>
+        <v>31.62155963985411</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.83004509665147</v>
+        <v>25.58975842776949</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.82985131074818</v>
+        <v>30.22254888305316</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.82989721577324</v>
+        <v>32.47975435259262</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>32.80032757658913</v>
+        <v>32.63416207799358</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.80057503787764</v>
+        <v>37.51664901867008</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.80052345887393</v>
+        <v>40.40687781562782</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.79935086274029</v>
+        <v>25.16299334922264</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.79955424857796</v>
+        <v>36.01925394486853</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>32.79918872706912</v>
+        <v>41.34659168072897</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>32.86188519729826</v>
+        <v>13.72779323639373</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>32.86182330794784</v>
+        <v>29.0538100544551</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>32.86188144692925</v>
+        <v>27.15684851402572</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>32.85834331781373</v>
+        <v>17.92358188861022</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>32.85814281928213</v>
+        <v>18.89154501191722</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.85817017619127</v>
+        <v>30.06368157610436</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>32.86135642120571</v>
+        <v>26.78904448367889</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>32.86120980190059</v>
+        <v>19.37880315340558</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.86116124701117</v>
+        <v>24.05610294200313</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>32.84814852640834</v>
+        <v>23.35424265959855</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.84815956219715</v>
+        <v>25.40976564619302</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.848144032352</v>
+        <v>25.64413518314787</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.84727836752907</v>
+        <v>20.35617125146832</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>32.84728562147689</v>
+        <v>28.74160689223368</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.84718061961272</v>
+        <v>27.51609453929846</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.84482481647044</v>
+        <v>17.51645833485463</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.8447793014805</v>
+        <v>26.57177025168802</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.84465221474049</v>
+        <v>24.9299442712302</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.84020563374794</v>
+        <v>2.801121399560309</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.8402679734618</v>
+        <v>18.36248011213017</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.84014848933083</v>
+        <v>23.40187659192173</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>32.84528914522884</v>
+        <v>18.48623704031301</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.8451393560828</v>
+        <v>16.65058279310363</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.8584353440055</v>
+        <v>-0.5488711990144139</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.85823440642836</v>
+        <v>34.88835488866751</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.85839949560707</v>
+        <v>30.72583885824122</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>32.85507184425917</v>
+        <v>21.71666678930812</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.85462638330894</v>
+        <v>24.74510753882784</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.85462534482608</v>
+        <v>30.1981628971663</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.85828141257203</v>
+        <v>34.69545782735255</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.85805242860072</v>
+        <v>25.87973360096147</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.85807702180941</v>
+        <v>29.19099036263776</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.84360207719165</v>
+        <v>35.38623687312482</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.84370011127645</v>
+        <v>40.0322832826905</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.84366377364283</v>
+        <v>40.04934887048289</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>32.84267977971848</v>
+        <v>25.87708554565679</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>32.84280858809527</v>
+        <v>42.06229711505914</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.84269113749502</v>
+        <v>40.42319815139045</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.83927651302125</v>
+        <v>-1.170093614541379</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.83909725378546</v>
+        <v>25.37012179213584</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.83905005206694</v>
+        <v>34.90733775317071</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>32.83501394743604</v>
+        <v>2.839033418717449</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.8348489555451</v>
+        <v>19.80098458138755</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.83426968211511</v>
+        <v>21.54532131307401</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.84033983740944</v>
+        <v>29.31533466275421</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.84003087852837</v>
+        <v>23.14725159367755</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.8614577035242</v>
+        <v>-2.499297398799563</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>32.86142754305408</v>
+        <v>32.97538132993625</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.86145989481119</v>
+        <v>28.32059120724458</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.85662972533088</v>
+        <v>20.56630930063057</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.85618692805029</v>
+        <v>23.11552969614811</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.85623224677491</v>
+        <v>30.34636895096741</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.85967822793947</v>
+        <v>34.46293946023999</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.85943215414441</v>
+        <v>25.08193800348174</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.85945915643841</v>
+        <v>29.07584178851444</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.84587237186801</v>
+        <v>31.58498639667987</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.84596662747624</v>
+        <v>36.00794192466645</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.84592624835867</v>
+        <v>36.07381942995562</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.84493349288775</v>
+        <v>19.82415579031829</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32.84506550646872</v>
+        <v>35.71155657780849</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.84496349116493</v>
+        <v>33.76158307103184</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.84108433403276</v>
+        <v>0.4531887870099922</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.8409594901264</v>
+        <v>24.36004816165006</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.84090948882572</v>
+        <v>36.73988383910105</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>32.8371158387451</v>
+        <v>3.076739150694621</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>32.83689861050749</v>
+        <v>19.98236751166154</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.83641061945437</v>
+        <v>23.69867218912282</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.84224544474225</v>
+        <v>32.03518254840344</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.84183357767896</v>
+        <v>22.91172240961007</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.86691477198339</v>
+        <v>1.891835729711254</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.86689398537947</v>
+        <v>24.25650648340316</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.86692289821108</v>
+        <v>23.3783865020422</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>32.86566531195247</v>
+        <v>14.54096973468281</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.86549538920225</v>
+        <v>19.31608509623667</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.86550036668254</v>
+        <v>26.73783581018019</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>32.86793080293052</v>
+        <v>23.34551833535651</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.86778044733138</v>
+        <v>21.40900369719891</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.86780382696429</v>
+        <v>24.25289566568138</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>32.85783718993121</v>
+        <v>24.36751345060008</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.85790418186813</v>
+        <v>27.67370258774064</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.85788501074982</v>
+        <v>28.44908505269493</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.85727577935955</v>
+        <v>16.62565437781187</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.85739832141629</v>
+        <v>27.69987589880813</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.85733579396028</v>
+        <v>26.5473660803926</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>32.85380639986565</v>
+        <v>4.438032772874987</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.85377586390263</v>
+        <v>22.20604760103576</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.85372622078914</v>
+        <v>30.54623111644833</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.8505923651125</v>
+        <v>3.771473490508388</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.85056360721484</v>
+        <v>23.94200003935111</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.85034018562063</v>
+        <v>26.13581663704145</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>32.85454431409371</v>
+        <v>22.93441043434973</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.85435315988634</v>
+        <v>22.07341802407447</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.8418129188316</v>
+        <v>20.67172135088832</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.81851458361899</v>
+        <v>20.19631253616057</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.8186037680854</v>
+        <v>23.62865733349521</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.82382147830864</v>
+        <v>23.76023889860031</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>32.82301635737472</v>
+        <v>17.66251206403595</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.82295692057592</v>
+        <v>22.78790370850023</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.82289196313436</v>
+        <v>20.8890077328844</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>32.83931199669787</v>
+        <v>18.26351108163227</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.83904142870683</v>
+        <v>26.62255317838811</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.83897117715065</v>
+        <v>28.1513112305438</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.83291584710887</v>
+        <v>-1.671056858968804</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.83291488303457</v>
+        <v>16.16653133039269</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.83294124259234</v>
+        <v>22.92645961467457</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.83867550815358</v>
+        <v>21.10785764276627</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.83832076724623</v>
+        <v>17.25596277388841</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>32.83832143874528</v>
+        <v>17.85385367417187</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.81427888322232</v>
+        <v>22.30260142198797</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.81439669396296</v>
+        <v>25.74450254433956</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.81447436976745</v>
+        <v>26.5597970795279</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.81331786616267</v>
+        <v>19.70609234580954</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.81324446381063</v>
+        <v>22.64965950938252</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.81318782600626</v>
+        <v>23.04328491277262</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.83553952064746</v>
+        <v>17.27544364971898</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.80976230710775</v>
+        <v>23.09579704840137</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.80978912030535</v>
+        <v>26.53721622344506</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.81658758971109</v>
+        <v>27.73071484221355</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.81566991128295</v>
+        <v>16.7001129302593</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.81586767792598</v>
+        <v>25.23566603166365</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.81539538075812</v>
+        <v>28.20945599770753</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>32.83300557373575</v>
+        <v>-1.726043616943819</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.83263027487737</v>
+        <v>31.52321657355325</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.83261732184912</v>
+        <v>42.09489972810957</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.82602507517414</v>
+        <v>8.864766758590189</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.82573901452632</v>
+        <v>29.15252529814615</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.8252076577123</v>
+        <v>29.09600330711669</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.83238753414678</v>
+        <v>37.0207526903183</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.83212516441506</v>
+        <v>36.37287656331589</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>32.8322253863628</v>
+        <v>30.19783256333713</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.80513711984871</v>
+        <v>38.04160119378651</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>32.80539119616805</v>
+        <v>42.68112291411588</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>32.80525751124983</v>
+        <v>44.27611907415439</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.80406672657211</v>
+        <v>28.01380910965326</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>32.80414706114197</v>
+        <v>40.75048842152572</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>32.80376469327832</v>
+        <v>45.01581581034603</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.83925779193986</v>
+        <v>19.88280857616522</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>32.81639368700394</v>
+        <v>21.13665754483606</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>32.81642058117433</v>
+        <v>23.9453216638742</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>32.81936419272044</v>
+        <v>26.210281043868</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.8184058192935</v>
+        <v>15.6977809417865</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.81851442539102</v>
+        <v>21.91022229831929</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.8181395522235</v>
+        <v>27.05915512312704</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.83478748129049</v>
+        <v>-1.487935461315828</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.83444824861601</v>
+        <v>30.09248943356567</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.83444803194224</v>
+        <v>43.31829673107157</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.82797600285004</v>
+        <v>7.416825939987973</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.82786053579545</v>
+        <v>27.79987463351242</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.82725211931117</v>
+        <v>30.96594573934133</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.8342982751892</v>
+        <v>36.90356315442921</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.8341031518017</v>
+        <v>35.69589764970631</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.83415304497971</v>
+        <v>30.64178409832973</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>32.80787065279093</v>
+        <v>36.73211905726068</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>32.80812314174344</v>
+        <v>41.35343763410085</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32.80799261715913</v>
+        <v>43.80779270721875</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.80674370092397</v>
+        <v>27.06178531588996</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>32.80681808965908</v>
+        <v>38.25020748635274</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>32.80638520693637</v>
+        <v>44.02655663355414</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.85119838333171</v>
+        <v>22.54383046848509</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.83253821832353</v>
+        <v>19.31399541328074</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.83256924187039</v>
+        <v>22.63975249162104</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.83751936719732</v>
+        <v>24.57383506156991</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.83688746204537</v>
+        <v>17.07764530663795</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.83693835234198</v>
+        <v>22.93440273081986</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.8368186496897</v>
+        <v>27.25288650854717</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.8498292709846</v>
+        <v>5.939917942068504</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.84960823904288</v>
+        <v>28.10617928711746</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.84965462424379</v>
+        <v>38.94767763259362</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.84497038733721</v>
+        <v>5.495824116057044</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.84504370322954</v>
+        <v>28.25268923690098</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.84482749683109</v>
+        <v>34.98063807636595</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.84966433893522</v>
+        <v>28.33138003555948</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.84953414148976</v>
+        <v>33.65958984982625</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.84958646540491</v>
+        <v>35.80328653664415</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.83003393189878</v>
+        <v>36.03905154886743</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.83019943184654</v>
+        <v>40.70246970532672</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.83016248412367</v>
+        <v>43.5194939942342</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>32.82942931261432</v>
+        <v>28.75031553929525</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.82957360010178</v>
+        <v>39.23826507047102</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>32.82930342753271</v>
+        <v>44.23154318765391</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>32.86432832076164</v>
+        <v>16.13323265780368</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>32.86427124498266</v>
+        <v>35.52831365441464</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>32.86432447918457</v>
+        <v>33.26459788497169</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>32.86076742108667</v>
+        <v>22.52782491209814</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>32.86057163917798</v>
+        <v>25.14072891840892</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>32.86062807999295</v>
+        <v>38.67890938861658</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>32.86353277652798</v>
+        <v>34.44784038461744</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>32.86338625105796</v>
+        <v>26.77648897637836</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.8633576674924</v>
+        <v>32.43343776421059</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>32.85150093570552</v>
+        <v>30.8044732720159</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.85150609509923</v>
+        <v>33.57420820197994</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.85149649714197</v>
+        <v>33.91155373993491</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>32.85062993863686</v>
+        <v>26.29876317082917</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>32.85062259595833</v>
+        <v>37.08947563663268</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.85053897544027</v>
+        <v>35.79377108066023</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>32.84871043976596</v>
+        <v>16.25995198737709</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>32.8486600074535</v>
+        <v>27.48632571727565</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.84854655590634</v>
+        <v>26.1964905400376</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.84441157433924</v>
+        <v>-2.065700482361997</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.84448404211942</v>
+        <v>16.70205556783297</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.84439430523608</v>
+        <v>23.6042100113164</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>32.84908266679681</v>
+        <v>17.4627489916589</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>32.84894251271859</v>
+        <v>15.81895803366992</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>32.86125938551703</v>
+        <v>1.82254806818834</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>32.86108887505954</v>
+        <v>46.36947079273999</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.86122428942397</v>
+        <v>41.827305575846</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>32.85772834692639</v>
+        <v>31.24596801331794</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.85727935459309</v>
+        <v>37.10923126447311</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.8573203823543</v>
+        <v>43.41131747693799</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>32.86068926854086</v>
+        <v>47.0689171685613</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.86044548671381</v>
+        <v>38.38693792278077</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.86049848750338</v>
+        <v>43.40851919541145</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.84730580591409</v>
+        <v>51.00495345998213</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.84737999940656</v>
+        <v>57.10577548196495</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.84735703583935</v>
+        <v>57.17812310958028</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.84636207486191</v>
+        <v>37.78425494252122</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.84645573409665</v>
+        <v>58.74195134274453</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.84637226184746</v>
+        <v>57.1586392664283</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.84425247903464</v>
+        <v>-9.332148178606147</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.84406301752235</v>
+        <v>23.01674575642308</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.84401188462805</v>
+        <v>34.25583145275557</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.84060839932447</v>
+        <v>-8.075248459606918</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.84047331694916</v>
+        <v>13.39025413477142</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.83989234795888</v>
+        <v>15.12365610564556</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.84537136758994</v>
+        <v>24.77064026434122</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.84506089004859</v>
+        <v>19.25168964438009</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.86428326071476</v>
+        <v>-1.664671699065906</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>32.86411611811801</v>
+        <v>43.10417650045112</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.86224073644654</v>
+        <v>37.85183961020394</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>32.85917000396704</v>
+        <v>29.4236609850536</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.85861727604259</v>
+        <v>34.82688361787503</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.85876962997629</v>
+        <v>43.04973260971086</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.8619712241993</v>
+        <v>46.18464728026456</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.86170146243359</v>
+        <v>37.06905103091772</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.86168933301656</v>
+        <v>42.67814184756848</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.84933483900814</v>
+        <v>46.22101824237818</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.849397277899</v>
+        <v>52.14340551870202</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.84912506836232</v>
+        <v>52.21595785092779</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.84837739931648</v>
+        <v>30.30013068368697</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>32.84844935361195</v>
+        <v>51.10992947873061</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.84838817197757</v>
+        <v>49.01377941416543</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.84558368907648</v>
+        <v>-7.087991855014401</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.84537648824066</v>
+        <v>22.86028067679153</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.84658281383217</v>
+        <v>37.27565640939429</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.84254865564863</v>
+        <v>-7.765845703960998</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.84221297438628</v>
+        <v>14.40600065757004</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.84165986734518</v>
+        <v>18.12504277666489</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.84697022720537</v>
+        <v>28.04033228182973</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.84659621896136</v>
+        <v>19.87069164205278</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.86887658662636</v>
+        <v>1.97762753234057</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.86893409278154</v>
+        <v>30.44915611481177</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.86958799497551</v>
+        <v>30.88489505538609</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.86753296043254</v>
+        <v>20.21745069206085</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.86728798704009</v>
+        <v>28.16226433114748</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.86736291000989</v>
+        <v>37.78155138300043</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>32.86959996547027</v>
+        <v>30.63455037231883</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.86942481232875</v>
+        <v>30.76719692444534</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.86942333211908</v>
+        <v>35.89082004511936</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.86040994322827</v>
+        <v>34.95521930987895</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.86045899202443</v>
+        <v>39.51834294725095</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.86042856631932</v>
+        <v>40.86921666051819</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.8598370785822</v>
+        <v>24.09951828553839</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.85992308240773</v>
+        <v>38.91046259170305</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.85987589639772</v>
+        <v>38.75755019641284</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.85700405722835</v>
+        <v>0.08793260963438598</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.85692965694245</v>
+        <v>22.59554369749586</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.85748506752769</v>
+        <v>32.93461486501452</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.85440895289971</v>
+        <v>-3.303613318648253</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>32.85430622840864</v>
+        <v>22.11827590644131</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.85396364265207</v>
+        <v>25.22041765884832</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.85784271254914</v>
+        <v>20.13443847949869</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.85765959951428</v>
+        <v>21.26495829916026</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.84624172328877</v>
+        <v>20.86867074663863</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.82511354563556</v>
+        <v>20.5663040847734</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.82963358257615</v>
+        <v>24.7983781170132</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.82986300066894</v>
+        <v>25.11047331092698</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.82879989974561</v>
+        <v>17.05656410587776</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.82876012472247</v>
+        <v>23.43417319380002</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.82867473422359</v>
+        <v>21.56902199927143</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>32.84346613271622</v>
+        <v>18.10168050992598</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.84325180320008</v>
+        <v>28.88668296695148</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.84263372364678</v>
+        <v>31.12273556316701</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.83783661513198</v>
+        <v>-5.013078735548575</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>32.83779915589388</v>
+        <v>16.18504252441087</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.83777234751895</v>
+        <v>25.43413801592268</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.84305199238378</v>
+        <v>21.73996661814522</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.84277670227345</v>
+        <v>17.95072826395191</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.84247590291972</v>
+        <v>19.74129178012023</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.82099606672547</v>
+        <v>24.86445779022615</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.8210803018769</v>
+        <v>29.30710059860098</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.82108269460739</v>
+        <v>30.42212311073747</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.81995442004892</v>
+        <v>20.92012552646836</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.81985709457214</v>
+        <v>25.19707940173816</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.81978321765186</v>
+        <v>25.99347866959532</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>32.84049744009566</v>
+        <v>11.43474410918112</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.81718146413367</v>
+        <v>19.32303559940566</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.82436462211736</v>
+        <v>23.7183200387981</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.82451149876723</v>
+        <v>25.01825175162192</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>32.82336403259668</v>
+        <v>11.55439589945239</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>32.82351818949884</v>
+        <v>22.54999718688873</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.82309487215069</v>
+        <v>25.84288785426543</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.83874716241653</v>
+        <v>-11.09183150173749</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.83819835878825</v>
+        <v>29.94411345756255</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.83823467794054</v>
+        <v>41.81274538231462</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>32.83324076060735</v>
+        <v>-3.546685811390347</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.83278249143351</v>
+        <v>22.0663486542706</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.83196587363298</v>
+        <v>21.05384220872951</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.8387340245698</v>
+        <v>32.25282646920695</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.83835955869238</v>
+        <v>33.30819766524661</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>32.83759312109018</v>
+        <v>24.39363545640589</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>32.81421427118302</v>
+        <v>34.3491401846367</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.81445621737338</v>
+        <v>40.29458987753863</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>32.81459874783463</v>
+        <v>41.85342323974221</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>32.81332832597418</v>
+        <v>22.24579771559386</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>32.81336385165933</v>
+        <v>38.56934204160171</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.81301945790145</v>
+        <v>42.887300814689</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.84426963488045</v>
+        <v>14.99409109324288</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.82386387043931</v>
+        <v>17.54504958158821</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.82666642270097</v>
+        <v>21.39020924330805</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.82676084332089</v>
+        <v>23.87996829599215</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.82567775022603</v>
+        <v>10.74215780583202</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.82573705360142</v>
+        <v>19.5987803036946</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.82540604125423</v>
+        <v>25.2623672560495</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.84025910991556</v>
+        <v>-10.45813871158212</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.84005186415506</v>
+        <v>28.61025392336323</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.84012502481379</v>
+        <v>43.51665477850344</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.83483676357692</v>
+        <v>-3.623368122194748</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.83432647783476</v>
+        <v>22.26035439335783</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.83365072002539</v>
+        <v>24.75881180054629</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.84028654989734</v>
+        <v>33.31403720131569</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.83949373038981</v>
+        <v>33.77630540167682</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.83927422967721</v>
+        <v>25.96608290546854</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>32.81647197054547</v>
+        <v>34.89944414888347</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.81685873448309</v>
+        <v>40.78497067446124</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.81668702160119</v>
+        <v>43.26700712010241</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.81549088614641</v>
+        <v>23.26269123814136</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.81553256363107</v>
+        <v>37.75773488841146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.81512539182806</v>
+        <v>43.79556610664731</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.85477899129386</v>
+        <v>21.48731116582764</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>32.84249835083498</v>
+        <v>17.60010116139541</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.84289902186844</v>
+        <v>22.04013099652027</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.84283462509421</v>
+        <v>24.47135511741266</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.84194315098222</v>
+        <v>14.51367971963163</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.84195090935182</v>
+        <v>22.75967873520522</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.84184694792653</v>
+        <v>27.85346534131359</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.85345626136986</v>
+        <v>1.65989839058496</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.85307839773943</v>
+        <v>28.85817462581141</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.85301262406522</v>
+        <v>41.98539171108307</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.84949767116905</v>
+        <v>0.9958940595121142</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.84926670718973</v>
+        <v>28.86269766590112</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.84901199335076</v>
+        <v>36.87630805500402</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>32.85355036005673</v>
+        <v>28.23277443402198</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.85304254317816</v>
+        <v>35.81619679000778</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.85293049275854</v>
+        <v>37.66471541983734</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.83589095725759</v>
+        <v>39.19501902185572</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.8364107034548</v>
+        <v>44.99508308561179</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.83628495738657</v>
+        <v>48.40015474257925</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>32.83527979993725</v>
+        <v>30.20391720134175</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.83539968143278</v>
+        <v>43.44687560644584</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.83512015378442</v>
+        <v>49.20428677849864</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>32.87104810749843</v>
+        <v>30.57810542778492</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.87062432277968</v>
+        <v>32.59474229306649</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.87059127580613</v>
+        <v>32.1557068735977</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.86828483904269</v>
+        <v>30.29402262145696</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.8682644954006</v>
+        <v>30.72898440159462</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.86831365289181</v>
+        <v>32.13646571804514</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.87039270049597</v>
+        <v>31.82453329562582</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.87038283848526</v>
+        <v>30.90702341680288</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.87039726803074</v>
+        <v>31.33610806005486</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.86162889791237</v>
+        <v>31.68032759393159</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.86154917955483</v>
+        <v>31.96151614408125</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.8615476791371</v>
+        <v>31.96819932666494</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.86099060339266</v>
+        <v>31.30659401622038</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.86100169526779</v>
+        <v>32.43982548441921</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.86098508631164</v>
+        <v>32.16810692927879</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.8589181179405</v>
+        <v>30.54115573622677</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.85880873899093</v>
+        <v>31.57742433370077</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.8587769085598</v>
+        <v>31.34596522603801</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.85534131452892</v>
+        <v>27.94124896734327</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.85532399065976</v>
+        <v>29.5132998808847</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.8553126855134</v>
+        <v>30.39614293924711</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.85890731520614</v>
+        <v>30.1816298495865</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.85873068112003</v>
+        <v>29.81059885250888</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>32.86842415200653</v>
+        <v>28.38723728762708</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.86784913904845</v>
+        <v>33.59469158365685</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.8678623189539</v>
+        <v>32.98397478694073</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.86504724835601</v>
+        <v>31.80411984388907</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.86489953055904</v>
+        <v>32.42136098400486</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.86497006282742</v>
+        <v>32.74201303919992</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.86750733808688</v>
+        <v>33.41204371894428</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.86740098741947</v>
+        <v>32.05959437392335</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.86745755299196</v>
+        <v>32.82170926951311</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>32.85726107321823</v>
+        <v>33.62232313475934</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.85710318391343</v>
+        <v>34.33337155158416</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.85710482563972</v>
+        <v>34.30468434825062</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>32.85647684747312</v>
+        <v>32.14634796123259</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.85648560802566</v>
+        <v>34.60761979149267</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.85646708218735</v>
+        <v>34.36754115751494</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.85507398956914</v>
+        <v>27.07466200901964</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.85525037346522</v>
+        <v>31.17099872463116</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.85514659903123</v>
+        <v>32.74215493163994</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>32.85142851075411</v>
+        <v>26.9523926687124</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.8513124037008</v>
+        <v>30.21013696012428</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.85110451353308</v>
+        <v>30.74914753022227</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.85532486001571</v>
+        <v>31.04533216373606</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.8549941616057</v>
+        <v>31.13765046596886</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.86983557289575</v>
+        <v>28.10599066661954</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>32.86880860078515</v>
+        <v>33.25571480476644</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.86880037503226</v>
+        <v>32.56884806658576</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.86612957754532</v>
+        <v>31.82705128713943</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.86599206024357</v>
+        <v>32.37311656021445</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.86606957333353</v>
+        <v>32.86306809467312</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.86847652588746</v>
+        <v>33.59218287258187</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.8683751700579</v>
+        <v>32.07942527127312</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.8684224799525</v>
+        <v>32.93219575115004</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.85874234918984</v>
+        <v>33.06474532679029</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.85857708347602</v>
+        <v>33.74474162250453</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>32.85857679982158</v>
+        <v>33.71018495245239</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.85799400106583</v>
+        <v>31.306705702287</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>32.85799063309068</v>
+        <v>33.73732508765123</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.85796546689101</v>
+        <v>33.41295314178549</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>32.85658122372328</v>
+        <v>26.84029437451597</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.85680850251751</v>
+        <v>30.50749421679446</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.85673954490122</v>
+        <v>32.82522112979267</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.85313934011674</v>
+        <v>25.79008822951154</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.85308050087649</v>
+        <v>29.00563029090047</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.85287474606028</v>
+        <v>30.0893187165752</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.85683806796172</v>
+        <v>30.16535568382286</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.85655613928158</v>
+        <v>29.92740722905548</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.87441402741722</v>
+        <v>29.7375734581927</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>32.87429442636383</v>
+        <v>32.82695459869115</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>32.87429596623882</v>
+        <v>32.78809611654282</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.87246277281574</v>
+        <v>31.44222136500577</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.8724045823422</v>
+        <v>32.26027423932602</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.87244188611253</v>
+        <v>32.84625977839883</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.87413743726076</v>
+        <v>32.19302767527245</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.87407628048967</v>
+        <v>32.05864254158795</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.87410057960478</v>
+        <v>32.41217879134854</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.86716715794043</v>
+        <v>32.9267948131044</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.86711053447728</v>
+        <v>33.41891971895389</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>32.86710884879113</v>
+        <v>33.51463094521202</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.86668531822018</v>
+        <v>31.91583903740594</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.86667538271472</v>
+        <v>33.5242351900328</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.86665968017343</v>
+        <v>33.45508373609346</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>32.86512452239771</v>
+        <v>28.6292146538791</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.8652304145242</v>
+        <v>31.33754067333635</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.86521195720312</v>
+        <v>33.14576807750692</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>32.86249304941834</v>
+        <v>27.80346927489375</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.8624689206552</v>
+        <v>30.76591651829277</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.86236844128662</v>
+        <v>32.03873405713227</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.86521944850045</v>
+        <v>30.26883342592613</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.86507763950629</v>
+        <v>30.72133306744978</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.85822120409406</v>
+        <v>30.19030996404763</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>32.8441079459276</v>
+        <v>30.18052266028451</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.84420244548668</v>
+        <v>30.59129385735325</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.84419554921065</v>
+        <v>30.59834308184076</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.8432783343693</v>
+        <v>29.89034941957611</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.84327434019506</v>
+        <v>30.47188512455984</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>32.84326966021337</v>
+        <v>30.15333174758506</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.85483278374063</v>
+        <v>30.72729116263857</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.85456030604313</v>
+        <v>32.17043011972</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.85454886804164</v>
+        <v>31.99843988651578</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.85033462250328</v>
+        <v>27.45873380174227</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.85037088302968</v>
+        <v>29.65980779103417</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.85035533063666</v>
+        <v>30.55126187191839</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>32.85440702288366</v>
+        <v>30.06176143077334</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.85424628721376</v>
+        <v>29.93835463910417</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.85423359457735</v>
+        <v>29.90401584720928</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.83764634793467</v>
+        <v>30.43213718572498</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.83759243804537</v>
+        <v>30.9826261108575</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>32.83757818965073</v>
+        <v>30.99979825000438</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.83662996485876</v>
+        <v>30.04817025188654</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.8365579394047</v>
+        <v>30.72728242819935</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.83652031375798</v>
+        <v>30.54099317225602</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.8535746667469</v>
+        <v>30.57738075368948</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.83866601365514</v>
+        <v>31.32325435152693</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.83888519695318</v>
+        <v>31.98970477197996</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.83883757220631</v>
+        <v>32.19481553087054</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.83782363403544</v>
+        <v>30.16318754773568</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>32.83783951709032</v>
+        <v>31.85719971859247</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.83778185665226</v>
+        <v>32.42175814597928</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.85084838335091</v>
+        <v>27.69725595392759</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.85052920335324</v>
+        <v>33.34511572238067</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>32.85043745265218</v>
+        <v>34.58555366730779</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.84609961875014</v>
+        <v>27.19974081378918</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.84593585358976</v>
+        <v>30.94885270224658</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.84570397458509</v>
+        <v>30.75216422774033</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.85060316968525</v>
+        <v>31.98476864178508</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.85024487292242</v>
+        <v>33.05341084923081</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>32.85016426601871</v>
+        <v>31.74632785370371</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>32.83141796081672</v>
+        <v>33.28201819013364</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>32.8317308411598</v>
+        <v>34.24889332209486</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>32.83167787464505</v>
+        <v>34.38401745467827</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>32.83050076366671</v>
+        <v>31.65967759466658</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.83053821823212</v>
+        <v>34.19596671611832</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.83044914617421</v>
+        <v>34.57559384159552</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.85584711741855</v>
+        <v>29.91611767900732</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>32.84101107627923</v>
+        <v>30.15596908791321</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>32.84119264326498</v>
+        <v>30.72675181914574</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>32.84115361072421</v>
+        <v>31.21751160539252</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.84020928346988</v>
+        <v>29.26237925006777</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>32.84017129774187</v>
+        <v>30.63847972816039</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.84013293833352</v>
+        <v>31.70769662421183</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.85235283598858</v>
+        <v>27.28283617066349</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.85217161401368</v>
+        <v>32.29134807957794</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>32.85210600044086</v>
+        <v>34.28675643526929</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>32.84778872483921</v>
+        <v>26.59767679437876</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.84768000837023</v>
+        <v>30.03512839298357</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>32.84744090591092</v>
+        <v>30.60601760128745</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.85210428041986</v>
+        <v>31.37009183137022</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>32.85182754450339</v>
+        <v>31.99110252143977</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>32.85175595916575</v>
+        <v>31.15197950691236</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>32.83379506241829</v>
+        <v>32.22841360266177</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>32.83400098120431</v>
+        <v>33.06748122663588</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.83395119955956</v>
+        <v>33.42628201905183</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.83285091162904</v>
+        <v>30.82581602474249</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.83284938210046</v>
+        <v>32.88506035946873</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>32.83276555101364</v>
+        <v>33.6936781659326</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.86430710793315</v>
+        <v>31.29271978153848</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.85365183079676</v>
+        <v>30.75817161071122</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.85376468974174</v>
+        <v>31.31394526690716</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.85374913501461</v>
+        <v>31.84086203410737</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.85303564271989</v>
+        <v>30.316283276897</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.85301613970911</v>
+        <v>31.44668183752119</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>32.85300918767161</v>
+        <v>32.41194409442623</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>32.86207507685148</v>
+        <v>28.90650983691384</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.86189396202293</v>
+        <v>31.97407192137211</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>32.86184769849436</v>
+        <v>34.13592322340455</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.85870191095358</v>
+        <v>27.70211386725718</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.8587035397206</v>
+        <v>30.71934127204933</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.85861042739302</v>
+        <v>32.59237410791467</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>32.86182383183322</v>
+        <v>30.92888258517728</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.86171915013909</v>
+        <v>31.82082341352222</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>32.86168355334343</v>
+        <v>32.60619930394117</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>32.84864985383082</v>
+        <v>31.58831988859684</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.84874454241299</v>
+        <v>32.26412099422105</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.8487097425299</v>
+        <v>32.89658709791677</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.8478919330252</v>
+        <v>30.44593544588022</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.84792187627189</v>
+        <v>32.04196220166286</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>32.84786230434002</v>
+        <v>33.05621256714164</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.368</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.846</v>
+        <v>21.386</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.454</v>
+        <v>22.217</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.467</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.741</v>
+        <v>20.314</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.1992469266064</v>
+        <v>-21.7865748735403</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.64680882907773</v>
+        <v>17.34066503215138</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.16602710156102</v>
+        <v>25.22532830876185</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.98300017688266</v>
+        <v>-3.744480525543622</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.53438149279193</v>
+        <v>7.059963675728795</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.87723040264354</v>
+        <v>12.45062718026054</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.97652046561021</v>
+        <v>8.643550734169821</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.70759766237514</v>
+        <v>12.15745566010196</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.6077411362424</v>
+        <v>15.98350228789161</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.43233042595145</v>
+        <v>20.8252790806381</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.93239468329814</v>
+        <v>27.99462848284907</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.97186319178141</v>
+        <v>31.31341623457456</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.70635890249174</v>
+        <v>4.712246441040747</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.68065430785884</v>
+        <v>21.97096817677516</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.3642447267302</v>
+        <v>28.0073631326386</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.43691255888345</v>
+        <v>-18.30469979703662</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.29556851018526</v>
+        <v>20.82639956199318</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.12502775984082</v>
+        <v>28.71264059480563</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.02111015417966</v>
+        <v>-0.2635938928149244</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.11563617133504</v>
+        <v>10.54375264692737</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.43570584833983</v>
+        <v>15.93542965271843</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.55033156194359</v>
+        <v>12.12706432582786</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.15602994819628</v>
+        <v>15.64312887919061</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.8026296966494</v>
+        <v>-15.36118306570563</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.9865713820461</v>
+        <v>23.76656340315697</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.9989646803783</v>
+        <v>31.65119815577987</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.99671198377559</v>
+        <v>2.681744278354358</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.22375970383107</v>
+        <v>13.48647613118703</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.14806890412935</v>
+        <v>18.87709884303604</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.9295252059461</v>
+        <v>15.07004591399664</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.50698410291099</v>
+        <v>18.58417362734656</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.2974609772585</v>
+        <v>22.41017772426471</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.47919985618857</v>
+        <v>27.25219676664335</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.63840236314923</v>
+        <v>34.4216396940119</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.58630220782544</v>
+        <v>37.74041823459697</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.14212553659496</v>
+        <v>11.13884833390216</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.03081900627302</v>
+        <v>28.39792580871358</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.5985905428054</v>
+        <v>34.43427842335791</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.81923120395928</v>
+        <v>-11.87831087731774</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.03396216397655</v>
+        <v>27.25329508582388</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.99811334926368</v>
+        <v>35.13950760782586</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.81037197365055</v>
+        <v>6.16362812647003</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.25079676960686</v>
+        <v>16.97126234736049</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.54422300181831</v>
+        <v>22.36289856846236</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.30982999084708</v>
+        <v>22.07084412498682</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.16391573799908</v>
+        <v>-11.81235981827217</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.34774398342434</v>
+        <v>27.31542174125445</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.28055079806423</v>
+        <v>35.20004723395061</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.83004823478211</v>
+        <v>6.230903794545497</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.92995687437927</v>
+        <v>17.03571739382369</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.24514323527754</v>
+        <v>22.42633118353172</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.92016373819145</v>
+        <v>18.61925227258496</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.32407601501234</v>
+        <v>22.13346712698979</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.32370146212158</v>
+        <v>25.95946739465262</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.52284423330789</v>
+        <v>30.80147979300148</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.6392065613223</v>
+        <v>37.97092966377727</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.59684003769588</v>
+        <v>41.28970605995607</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.68331598238176</v>
+        <v>14.68806353540992</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.51565972453089</v>
+        <v>31.94721968600027</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.02659450520978</v>
+        <v>37.98356495882922</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.93820597387551</v>
+        <v>-8.329036304457873</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.57249337019203</v>
+        <v>30.80260475160765</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.309997275291</v>
+        <v>38.68880801272837</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.22101661458716</v>
+        <v>9.713239012463305</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.63739571563778</v>
+        <v>20.52095498169228</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.494518839494</v>
+        <v>25.91258227984656</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.65958462103013</v>
+        <v>22.10421449439536</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.62810914726292</v>
+        <v>25.62058900215948</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.75959947171701</v>
+        <v>-18.38804224018168</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.92025945289355</v>
+        <v>20.73943784836149</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>32.87123372540562</v>
+        <v>28.62416451130366</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.31163991932944</v>
+        <v>-0.3454584092477262</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.8166671596258</v>
+        <v>10.4591552070566</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.2631056761456</v>
+        <v>15.84986533158565</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.80049477249728</v>
+        <v>12.04266640030596</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.89873305147075</v>
+        <v>15.55670821503338</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.5828733950725</v>
+        <v>19.38279723277105</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.99133278123222</v>
+        <v>24.22457015041641</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.8373113549317</v>
+        <v>31.39396506545791</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.0079292453761</v>
+        <v>34.71278494895967</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.13102501004985</v>
+        <v>8.111369312739726</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.80638794333291</v>
+        <v>25.37028481837842</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.65540707739238</v>
+        <v>31.40673550425674</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.48426118357692</v>
+        <v>-14.90565026257275</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.73220681279686</v>
+        <v>24.22568929978183</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.66290079215062</v>
+        <v>32.11199373001114</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.25753118626087</v>
+        <v>3.135945171134495</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32.00377785534745</v>
+        <v>13.9434611435945</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.76936054795822</v>
+        <v>19.33518477581947</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.26415187009545</v>
+        <v>15.52669695884947</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.78306037515494</v>
+        <v>19.04289841585387</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.05817200452031</v>
+        <v>19.46999320698376</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.76259486925069</v>
+        <v>24.31297440094022</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.4557748582778</v>
+        <v>31.48379707201457</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.52421044450292</v>
+        <v>34.80333860681003</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.12954364891177</v>
+        <v>8.198995923585699</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.18995047059251</v>
+        <v>25.46088140214306</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.88237791122749</v>
+        <v>31.49850525064664</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.3221247355037</v>
+        <v>-9.424593819603729</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.45684949337164</v>
+        <v>29.70651499240046</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.66933155361924</v>
+        <v>37.59325396846157</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.37260874541187</v>
+        <v>8.61832004776204</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.23875397332316</v>
+        <v>19.42614394654379</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.7178162347462</v>
+        <v>24.81821491191658</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.92936920823139</v>
+        <v>21.0095658249985</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.47316068410097</v>
+        <v>24.52620636447125</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.72328645131894</v>
+        <v>28.35340323492107</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.45768342127163</v>
+        <v>33.19787967156299</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>32.27388444528643</v>
+        <v>40.36889806563192</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.43352872866465</v>
+        <v>43.68865837491467</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.73999814891245</v>
+        <v>17.08329862037783</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.65941295096953</v>
+        <v>34.34562092429803</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.68288057062372</v>
+        <v>40.38369022948609</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.98973315560146</v>
+        <v>25.89766592924195</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.62443999176351</v>
+        <v>30.74088936886471</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.55406282465292</v>
+        <v>37.91180557268149</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.76489185447534</v>
+        <v>41.23133789933149</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.96485517449951</v>
+        <v>14.62659508388356</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.28957810115136</v>
+        <v>31.88883633468936</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.84323334739855</v>
+        <v>37.92641785184753</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.84382160503973</v>
+        <v>-2.99781385517872</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.74727950802107</v>
+        <v>36.13380155707523</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.64818294682696</v>
+        <v>44.02051201789891</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.19977279546638</v>
+        <v>15.04593314800252</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.31287939483688</v>
+        <v>25.85404472425057</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.88050248798218</v>
+        <v>31.24607490232836</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.78580761033025</v>
+        <v>27.4374493475807</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.59357084480552</v>
+        <v>30.95431269278254</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>32.72919294188485</v>
+        <v>34.78146703913535</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.91865616306166</v>
+        <v>39.62618572632277</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.15752713429319</v>
+        <v>46.7972976516578</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.37065413391361</v>
+        <v>50.11704875098496</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.55288100962699</v>
+        <v>23.51128886670278</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.88394183448813</v>
+        <v>40.77396693798164</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.48539001453364</v>
+        <v>46.81199390927463</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.9815045859048</v>
+        <v>29.44740697703719</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.64950734129361</v>
+        <v>34.29062375079025</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.45472947883088</v>
+        <v>41.46154689539867</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.95451280599536</v>
+        <v>44.78107707618665</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.25024836186635</v>
+        <v>18.17626164110243</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.09350085984995</v>
+        <v>35.43858157042894</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.20283930678723</v>
+        <v>41.47615574524139</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.66580719249806</v>
+        <v>0.5516286194470013</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.05364082369876</v>
+        <v>39.6832791237515</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.60613666588078</v>
+        <v>47.56998031841727</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.64316378908744</v>
+        <v>18.59571194126931</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.62846479709647</v>
+        <v>29.40390526441058</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.98865046398472</v>
+        <v>34.79592651571215</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.39375210515795</v>
+        <v>30.98727499066115</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.94242065058646</v>
+        <v>34.50422547775463</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.37302472352589</v>
+        <v>38.33137599187194</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.16194201292302</v>
+        <v>43.17608800839014</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.35148144132803</v>
+        <v>50.34720687361937</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.77212748850449</v>
+        <v>53.66695582502655</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.97665868234845</v>
+        <v>27.06112332305963</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.8807425160018</v>
+        <v>44.32388007095028</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.83364533766315</v>
+        <v>50.36189969578095</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.97033087809187</v>
+        <v>22.86980513951971</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.56159661323866</v>
+        <v>27.71278243380698</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.43222897992776</v>
+        <v>34.88365062137814</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.92452062806726</v>
+        <v>38.20322429221756</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.85724458025219</v>
+        <v>11.59863576028101</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>32.53041134899284</v>
+        <v>28.86071502795119</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.50042858770014</v>
+        <v>34.89839461443853</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.54365801417211</v>
+        <v>-6.025195981583238</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.37594828383239</v>
+        <v>33.10615303453051</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.96582595426479</v>
+        <v>40.99295540290279</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.33899600054058</v>
+        <v>12.01820743361066</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>32.32969805717931</v>
+        <v>22.82620076727915</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.09556799963604</v>
+        <v>28.21831835521527</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.05388476788696</v>
+        <v>24.4095467892721</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.50049620948852</v>
+        <v>27.92632423340149</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.0733431970811</v>
+        <v>31.7535634978201</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.00555140078799</v>
+        <v>36.59803603653393</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.05765259168733</v>
+        <v>43.76909994781624</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.75195782835731</v>
+        <v>47.0888923912056</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>32.34784170361053</v>
+        <v>20.48328678100586</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.75488802533051</v>
+        <v>37.74580287540175</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.92108611273424</v>
+        <v>43.78392791481701</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4.430536678613002</v>
+        <v>-11.10236544106863</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.48918117681408</v>
+        <v>28.02377705363949</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.95933265775288</v>
+        <v>35.90767717097958</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.792760378769799</v>
+        <v>6.940053273108674</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.070898950219739</v>
+        <v>17.74482895579479</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.77708579906633</v>
+        <v>23.13491552421954</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.74221761620164</v>
+        <v>19.3278827971825</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.89287721477961</v>
+        <v>22.84244707394737</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>12.42256624433433</v>
+        <v>26.66802774606799</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>11.31024451894647</v>
+        <v>31.50961667575314</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>13.35147822080842</v>
+        <v>38.67892222264106</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>13.51779110708511</v>
+        <v>41.99734098454053</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>8.967415216614835</v>
+        <v>15.3966994087375</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.59928453867579</v>
+        <v>32.65551000543076</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.90645406673935</v>
+        <v>38.69125295333413</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>11.31720853978462</v>
+        <v>-7.623181858837256</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.72509191539321</v>
+        <v>31.5068198736642</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.70546630766792</v>
+        <v>39.39229754188102</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-5.875482198978737</v>
+        <v>10.4182483157731</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.1391843744332</v>
+        <v>21.22592617405542</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.66980513800657</v>
+        <v>26.61702608263977</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11.19712512843664</v>
+        <v>22.80870464966563</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.69129180102335</v>
+        <v>26.32542843044337</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-11.765904876664</v>
+        <v>-4.677364893711001</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.53467331235839</v>
+        <v>34.44928414176127</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.12867511044695</v>
+        <v>42.33315573053517</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8.607473334857136</v>
+        <v>13.3658867692352</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.198503441181462</v>
+        <v>24.17095009204718</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14.41465427736941</v>
+        <v>29.56099586585674</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.25279903099737</v>
+        <v>25.7539866526123</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.045086186868378</v>
+        <v>29.26877370874979</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>11.37115283872861</v>
+        <v>33.09431184832067</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17.83798588669871</v>
+        <v>37.93614301488628</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.24040338665076</v>
+        <v>45.10554208336771</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.09527847407319</v>
+        <v>48.42395163183562</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9.082428815155602</v>
+        <v>21.82290996982385</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.11298618846538</v>
+        <v>39.08207629150218</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.70004860378824</v>
+        <v>45.11777689487815</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-8.18111661717046</v>
+        <v>-1.197184268552064</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.19367082447722</v>
+        <v>37.93332404591547</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.47403827055409</v>
+        <v>45.81877319831085</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-4.985127908370956</v>
+        <v>16.84507895862635</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>11.71921851416126</v>
+        <v>27.65304448672555</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>14.70174059042509</v>
+        <v>33.04410360857889</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.25897647259121</v>
+        <v>29.23580569160754</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.93503182370797</v>
+        <v>32.7527522754217</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-13.92701626350669</v>
+        <v>-1.128818188292826</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.20834637548825</v>
+        <v>37.99786593286035</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.38107345104063</v>
+        <v>45.88172826023208</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.475258484218497</v>
+        <v>16.91476971954864</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.518396649812573</v>
+        <v>27.71991478117229</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>13.83642142054148</v>
+        <v>33.10995163196515</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.37859722792437</v>
+        <v>29.30291643839382</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.365187009379309</v>
+        <v>32.81779062861256</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>10.57624193233423</v>
+        <v>36.64332493810514</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>12.93017756911785</v>
+        <v>41.4851494638466</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.00688427713504</v>
+        <v>48.65455547443048</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.00259877001655</v>
+        <v>51.97296287789527</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2.02812766903255</v>
+        <v>25.37184859981471</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.53933693629101</v>
+        <v>42.63109358974248</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.86931011152004</v>
+        <v>48.66678685058162</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-7.140904193743488</v>
+        <v>2.351813738202623</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.69270499766221</v>
+        <v>41.48235714079749</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.50551018521776</v>
+        <v>49.36779703106686</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-6.136900765507839</v>
+        <v>20.39441325382825</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9.86072845256659</v>
+        <v>31.20246052327525</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.45486592301893</v>
+        <v>36.59351072134973</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.99015280462793</v>
+        <v>32.78518682855588</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.78734849353834</v>
+        <v>36.30222054941896</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-7.776633984007852</v>
+        <v>-7.704088986144939</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.87968614517927</v>
+        <v>31.42229367877212</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.72800048649572</v>
+        <v>39.3062571749482</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-0.1228621281933826</v>
+        <v>10.33881918418786</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1.862097223934789</v>
+        <v>21.14376427348839</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.167147974826808</v>
+        <v>26.53389745638083</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>9.83476613541335</v>
+        <v>22.72674225010996</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>4.15690056199568</v>
+        <v>26.24144340880787</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>5.96372402409979</v>
+        <v>30.06706646618647</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5.514952190200624</v>
+        <v>34.90865152725303</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8.189287994869169</v>
+        <v>42.07800258516102</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>8.756071704470241</v>
+        <v>45.39645347490182</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-1.02533887681988</v>
+        <v>18.79556607064046</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.939884992754326</v>
+        <v>36.05457042767341</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>6.795262798323645</v>
+        <v>42.09036909888175</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-2.389045662474707</v>
+        <v>-4.224388543538453</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>14.97842615699155</v>
+        <v>34.90585338047538</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.17353061463641</v>
+        <v>42.79139443834686</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-4.587499539229583</v>
+        <v>13.8175311337618</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.35039891567052</v>
+        <v>24.62537841712651</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>17.73658000204086</v>
+        <v>30.0165249466645</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.3510886333316</v>
+        <v>26.20808102884962</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.37884953375277</v>
+        <v>29.72494170748894</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.45198575925981</v>
+        <v>30.15182666595229</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.32885779785083</v>
+        <v>34.99462004367626</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.81993804487236</v>
+        <v>42.16539877866057</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.95327855333344</v>
+        <v>45.48457122597472</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.439201238917615</v>
+        <v>18.88075706686459</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>14.06377416167962</v>
+        <v>36.14273122885936</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>11.88297754614515</v>
+        <v>42.17970288630079</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>13.60313208690055</v>
+        <v>1.255853747406604</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.39250656134439</v>
+        <v>40.38586488118347</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.35785641976026</v>
+        <v>48.2718404775535</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-9.409294421814842</v>
+        <v>19.29909174813542</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.16978170575812</v>
+        <v>30.10724689696383</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.68623041688038</v>
+        <v>35.49874076334459</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.27543577556157</v>
+        <v>31.69013559129826</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.30281904229031</v>
+        <v>35.20743528670164</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>11.27339677035609</v>
+        <v>39.03416606222868</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.33656980402759</v>
+        <v>43.8784546333078</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.93896635304419</v>
+        <v>51.04942906460099</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.68453209274007</v>
+        <v>54.36882028413152</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>13.17447021655233</v>
+        <v>27.76398916120968</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.98487195733513</v>
+        <v>45.02640007510126</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.96710335002045</v>
+        <v>51.06381718284308</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.865097522151025</v>
+        <v>36.57910798554019</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>12.41664678417466</v>
+        <v>41.42214359705531</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>15.81761709726704</v>
+        <v>48.59301586086406</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.50245320858085</v>
+        <v>51.91217909765987</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.486355851516205</v>
+        <v>25.30796482672315</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.38215348784736</v>
+        <v>42.57029474642184</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.52309358795128</v>
+        <v>48.60722406942273</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-6.920373435546296</v>
+        <v>7.682242347397619</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>6.406729763219118</v>
+        <v>25.72631343621697</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.03790970512069</v>
+        <v>36.53475625105398</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.72406952429238</v>
+        <v>41.92620932830789</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.48844855293702</v>
+        <v>38.11762768519384</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.67068047671152</v>
+        <v>41.63515017862971</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.92234538214531</v>
+        <v>45.46183842851963</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.38647866408016</v>
+        <v>50.30636923768213</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.13745567129537</v>
+        <v>57.4774371964071</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.37401854390042</v>
+        <v>60.79681920377129</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.16092161797182</v>
+        <v>34.19158797115062</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>37.77909599586751</v>
+        <v>51.45435463818035</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>43.85531078719583</v>
+        <v>57.49172940921608</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.12169791352668</v>
+        <v>40.12857242946734</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>8.775886525010492</v>
+        <v>44.97160137642334</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>11.30875256158129</v>
+        <v>52.14248057957479</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.23503319596799</v>
+        <v>55.4616416699015</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>4.136572551302816</v>
+        <v>28.85735478791139</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>9.000750760565026</v>
+        <v>46.11976337899728</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.83264621381041</v>
+        <v>52.15668535867587</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-6.667672811219539</v>
+        <v>11.23140824765562</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.63106184392648</v>
+        <v>50.36196104646103</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.50188800023475</v>
+        <v>58.2478988553604</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.039764958467657</v>
+        <v>29.27581563115405</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.04735556868009</v>
+        <v>40.0843401855268</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.14263299756114</v>
+        <v>45.47578433481408</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.38163338206746</v>
+        <v>41.66717672347011</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.13859151972423</v>
+        <v>45.18478635185863</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.4461956245555</v>
+        <v>49.01147076873042</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.34006995625165</v>
+        <v>53.85599490966467</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.14245030697866</v>
+        <v>61.02706980710173</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.28545059081831</v>
+        <v>64.34644966567157</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.36758878121627</v>
+        <v>37.74114582365291</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.45118205748871</v>
+        <v>55.00399116025903</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.07567536074386</v>
+        <v>61.04135858367169</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.35234053351743</v>
+        <v>33.55138233422815</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.906815777886735</v>
+        <v>38.39417181789679</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.86162249672119</v>
+        <v>45.56499606762407</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.89167614342998</v>
+        <v>48.88420064692787</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.405541570601606</v>
+        <v>22.2801406532252</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.10082372924458</v>
+        <v>39.54230859494896</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.05323953220966</v>
+        <v>45.57933598404975</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.751967448942576</v>
+        <v>4.654995346756436</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.51052375385753</v>
+        <v>43.7852466721921</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.90516026888917</v>
+        <v>51.67128565355063</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.09762514921838772</v>
+        <v>22.69872286882571</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.40863679604578</v>
+        <v>33.50704744427708</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.62155963985411</v>
+        <v>38.89858792756968</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.58975842776949</v>
+        <v>35.08986028265986</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.22254888305316</v>
+        <v>38.60729687640207</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.47975435259262</v>
+        <v>42.43407004113544</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>32.63416207799358</v>
+        <v>47.27835472045842</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.51664901867008</v>
+        <v>54.44937466678959</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.40687781562782</v>
+        <v>57.76879801643395</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.16299334922264</v>
+        <v>31.16372105188441</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.01925394486853</v>
+        <v>48.42632574657057</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>41.34659168072897</v>
+        <v>54.46379858248019</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.72779323639373</v>
+        <v>-12.72884619010597</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.0538100544551</v>
+        <v>26.39828285268095</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.15684851402572</v>
+        <v>34.2822975870032</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.92358188861022</v>
+        <v>5.31358887344345</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.89154501191722</v>
+        <v>16.11869423601183</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.06368157610436</v>
+        <v>21.50883384962492</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.78904448367889</v>
+        <v>17.7017135344978</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.37880315340558</v>
+        <v>21.21641883302686</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.05610294200313</v>
+        <v>25.04202654469896</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.35424265959855</v>
+        <v>29.88371187099415</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.40976564619302</v>
+        <v>37.05320511788466</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.64413518314787</v>
+        <v>40.37164668381615</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.35617125146832</v>
+        <v>13.77035415310309</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.74160689223368</v>
+        <v>31.02964162773094</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.51609453929846</v>
+        <v>37.06544972556605</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.51645833485463</v>
+        <v>-9.250917744962635</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.57177025168802</v>
+        <v>29.88007060986786</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.9299442712302</v>
+        <v>37.76566292325197</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.801121399560309</v>
+        <v>8.790528687744882</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.36248011213017</v>
+        <v>19.59853626937604</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.40187659192173</v>
+        <v>24.98968924689052</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.48623704031301</v>
+        <v>21.18128019185917</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.65058279310363</v>
+        <v>24.69814502705117</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-0.5488711990144139</v>
+        <v>-6.303750389547531</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.88835488866751</v>
+        <v>32.82388520853146</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.72583885824122</v>
+        <v>40.70787141112373</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.71666678930812</v>
+        <v>11.7395176351414</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.74510753882784</v>
+        <v>22.54491064621743</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.1981628971663</v>
+        <v>27.93500946273923</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.69545782735255</v>
+        <v>24.12791266129932</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.87973360096147</v>
+        <v>27.64284074637442</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.19099036263776</v>
+        <v>31.46840592307251</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.38623687312482</v>
+        <v>36.31033349059305</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.0322832826905</v>
+        <v>43.47992026124587</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.04934887048289</v>
+        <v>46.79835261272581</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.87708554565679</v>
+        <v>20.19665998703351</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.06229711505914</v>
+        <v>37.45630319687564</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.42319815139045</v>
+        <v>43.49206894696033</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-1.170093614541379</v>
+        <v>-2.824824882739222</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.37012179213584</v>
+        <v>36.30667006874273</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.90733775317071</v>
+        <v>44.19223386307624</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2.839033418717449</v>
+        <v>15.21745461479043</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>19.80098458138755</v>
+        <v>26.02574987526759</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.54532131307401</v>
+        <v>31.41686206322561</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.31533466275421</v>
+        <v>27.60847652391783</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.14725159367755</v>
+        <v>31.12556416951543</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-2.499297398799563</v>
+        <v>-2.755134051388723</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>32.97538132993625</v>
+        <v>36.37253663379772</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.32059120724458</v>
+        <v>44.25651357444212</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.56630930063057</v>
+        <v>15.28847022590514</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.11552969614811</v>
+        <v>26.09394497811229</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.34636895096741</v>
+        <v>31.48403487114956</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>34.46293946023999</v>
+        <v>27.67691208839051</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.08193800348174</v>
+        <v>31.19192730979239</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.07584178851444</v>
+        <v>35.01748865628645</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.58498639667987</v>
+        <v>39.85940958155595</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.00794192466645</v>
+        <v>47.02900329570423</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.07381942995562</v>
+        <v>50.34743350181554</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.82415579031829</v>
+        <v>23.74566825895363</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.71155657780849</v>
+        <v>41.00539013958985</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.76158307103184</v>
+        <v>47.0411485466318</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.4531887870099922</v>
+        <v>0.7242427684560653</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.36004816165006</v>
+        <v>39.85577280949224</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.73988383910105</v>
+        <v>47.74132734090267</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.076739150694621</v>
+        <v>18.76685856235486</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>19.98236751166154</v>
+        <v>29.57523556604383</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.69867218912282</v>
+        <v>34.96633883041784</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.03518254840344</v>
+        <v>31.15792731336035</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.91172240961007</v>
+        <v>34.67510209849524</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1.891835729711254</v>
+        <v>-9.330525397691304</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.25650648340316</v>
+        <v>29.79684382109826</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23.3783865020422</v>
+        <v>37.6809219354127</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>14.54096973468281</v>
+        <v>8.712399131703364</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.31608509623667</v>
+        <v>19.51767390403063</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.73783581018019</v>
+        <v>24.90786013316369</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.34551833535651</v>
+        <v>21.10061733629141</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.40900369719891</v>
+        <v>24.61545951957396</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.25289566568138</v>
+        <v>28.44110961767569</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.36751345060008</v>
+        <v>33.2827910764006</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.67370258774064</v>
+        <v>40.45232983509811</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.44908505269493</v>
+        <v>43.77080352954374</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.62565437781187</v>
+        <v>17.16926516656645</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.69987589880813</v>
+        <v>34.42874640513321</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.5473660803926</v>
+        <v>40.46461022747678</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.438032772874987</v>
+        <v>-5.852080088706998</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.20604760103576</v>
+        <v>33.27914846291094</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.54623111644833</v>
+        <v>41.16480416725017</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3.771473490508388</v>
+        <v>12.189855855926</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.94200003935111</v>
+        <v>22.99803286637894</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.13581663704145</v>
+        <v>28.38923246588229</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.93441043434973</v>
+        <v>24.58070092308208</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.07341802407447</v>
+        <v>28.09770265915267</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.67172135088832</v>
+        <v>28.52457031539529</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.19631253616057</v>
+        <v>33.36746018430267</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.62865733349521</v>
+        <v>40.53842664323827</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.76023889860031</v>
+        <v>43.85762191099252</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.66251206403595</v>
+        <v>17.25315677010678</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.78790370850023</v>
+        <v>34.51560786276923</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.8890077328844</v>
+        <v>40.55264469274937</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.26351108163227</v>
+        <v>-0.3717747496025368</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.62255317838811</v>
+        <v>38.75922300794184</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.1513112305438</v>
+        <v>46.64531325902578</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1.671056858968804</v>
+        <v>17.67147956289159</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.16653133039269</v>
+        <v>28.47996444630905</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.92645961467457</v>
+        <v>33.87151139155742</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.10785764276627</v>
+        <v>30.06281858872114</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>17.25596277388841</v>
+        <v>33.58025935221031</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.85385367417187</v>
+        <v>37.40701718841422</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.30260142198797</v>
+        <v>42.25140229181341</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.74450254433956</v>
+        <v>49.42256445175065</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.5597970795279</v>
+        <v>52.74197850096493</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.70609234580954</v>
+        <v>26.13649638063566</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.64965950938252</v>
+        <v>43.39938423583726</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.04328491277262</v>
+        <v>49.4368665264584</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>17.27544364971898</v>
+        <v>34.95194692954794</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.09579704840137</v>
+        <v>39.79507903620981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.53721622344506</v>
+        <v>46.96613902659772</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.73071484221355</v>
+        <v>50.28532508302555</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.7001129302593</v>
+        <v>23.68045982117394</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.23566603166365</v>
+        <v>40.94326668231349</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.20945599770753</v>
+        <v>46.98026117449149</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-1.726043616943819</v>
+        <v>6.054709128636659</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.52321657355325</v>
+        <v>45.18621347855537</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.09489972810957</v>
+        <v>53.07227520646302</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>8.864766758590189</v>
+        <v>24.09879654237807</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.15252529814615</v>
+        <v>34.9075691008652</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.09600330711669</v>
+        <v>40.29907525415013</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>37.0207526903183</v>
+        <v>36.49040597922658</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.37287656331589</v>
+        <v>40.00806954817881</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.19783256333713</v>
+        <v>43.83478485612534</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.04160119378651</v>
+        <v>48.67941220144041</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.68112291411588</v>
+        <v>55.85066789155678</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.27611907415439</v>
+        <v>59.17007272735611</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.01380910965326</v>
+        <v>32.56419048834323</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>40.75048842152572</v>
+        <v>49.82743410729199</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>45.01581581034603</v>
+        <v>55.86487405819389</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.88280857616522</v>
+        <v>38.5014810283476</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.13665754483606</v>
+        <v>43.34460646963782</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.9453216638742</v>
+        <v>50.51567340043584</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.210281043868</v>
+        <v>53.83485731016071</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.6977809417865</v>
+        <v>27.22991943569718</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.91022229831929</v>
+        <v>44.49280497066093</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.05915512312704</v>
+        <v>50.52979211912498</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1.487935461315828</v>
+        <v>9.603944678860898</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.09248943356567</v>
+        <v>48.73548411750266</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>43.31829673107157</v>
+        <v>56.62153657710712</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.416825939987973</v>
+        <v>27.64836839406269</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.79987463351242</v>
+        <v>38.45722269458213</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.96594573934133</v>
+        <v>43.84871991973148</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.90356315442921</v>
+        <v>40.04002467530336</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.69589764970631</v>
+        <v>43.55777538179007</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.64178409832973</v>
+        <v>47.38448685665173</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.73211905726068</v>
+        <v>52.22910753238796</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.35343763410085</v>
+        <v>59.40037016218787</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.80779270721875</v>
+        <v>62.71977284910281</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.06178531588996</v>
+        <v>36.11381799919377</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.25020748635274</v>
+        <v>53.37714029022197</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>44.02655663355414</v>
+        <v>59.41457289284983</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.54383046848509</v>
+        <v>31.92417033965228</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.31399541328074</v>
+        <v>36.76705631591381</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.63975249162104</v>
+        <v>43.9380682907107</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.57383506156991</v>
+        <v>47.25729569128293</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>17.07764530663795</v>
+        <v>20.65258471105938</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.93440273081986</v>
+        <v>37.91522958773089</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.25288650854717</v>
+        <v>43.9523221504096</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.939917942068504</v>
+        <v>3.027411199551238</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.10617928711746</v>
+        <v>42.15864915442205</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.94767763259362</v>
+        <v>50.04480279144423</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.495824116057044</v>
+        <v>21.07115504226078</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.25268923690098</v>
+        <v>31.87980935626808</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.98063807636595</v>
+        <v>37.27140291948251</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.33138003555948</v>
+        <v>33.46258764006757</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.65958984982625</v>
+        <v>36.98016530520329</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.80328653664415</v>
+        <v>40.80696553155974</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.03905154886743</v>
+        <v>45.65134674414833</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.70246970532672</v>
+        <v>52.82255442044584</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.5194939942342</v>
+        <v>56.14200060042947</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.75031553929525</v>
+        <v>29.53627263388455</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.23826507047102</v>
+        <v>46.79935427453404</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.23154318765391</v>
+        <v>52.83689229440972</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.13323265780368</v>
+        <v>-18.11636504374997</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>35.52831365441464</v>
+        <v>21.01081100985596</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>33.26459788497169</v>
+        <v>28.89490131455739</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.52782491209814</v>
+        <v>-0.07421416882846188</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.14072891840892</v>
+        <v>10.73075727868854</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>38.67890938861658</v>
+        <v>16.12101043894734</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>34.44784038461744</v>
+        <v>12.31388330803475</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.77648897637836</v>
+        <v>15.82842783741171</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.43343776421059</v>
+        <v>19.65412961143306</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.8044732720159</v>
+        <v>24.49596414624068</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.57420820197994</v>
+        <v>31.6654056189733</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.91155373993491</v>
+        <v>34.9838703303933</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.29876317082917</v>
+        <v>8.382833893989982</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>37.08947563663268</v>
+        <v>25.64201297138789</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.79377108066023</v>
+        <v>31.67792574621876</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.25995198737709</v>
+        <v>-14.63830867938816</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.48632571727565</v>
+        <v>24.49272674554402</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.1964905400376</v>
+        <v>32.37839464654394</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.065700482361997</v>
+        <v>3.402853525584419</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.70205556783297</v>
+        <v>14.21072724093847</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.6042100113164</v>
+        <v>19.60199377959088</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.4627489916589</v>
+        <v>15.79357787798062</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.81895803366992</v>
+        <v>19.31028197925002</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.82254806818834</v>
+        <v>-11.69124912389407</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>46.36947079273999</v>
+        <v>27.43643348570663</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>41.827305575846</v>
+        <v>35.32049525993637</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.24596801331794</v>
+        <v>6.351734715402699</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>37.10923126447311</v>
+        <v>17.1569938109235</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>43.41131747693799</v>
+        <v>22.54720617598832</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>47.0689171685613</v>
+        <v>18.74010255961218</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.38693792278077</v>
+        <v>22.2548698742454</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>43.40851919541145</v>
+        <v>26.08052911549271</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>51.00495345998213</v>
+        <v>30.92260589518344</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>57.10577548196495</v>
+        <v>38.09214089166699</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>57.17812310958028</v>
+        <v>41.41059638934064</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.78425494252122</v>
+        <v>14.80915985754439</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>58.74195134274453</v>
+        <v>32.06869466947217</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.1586392664283</v>
+        <v>38.10456509884284</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-9.332148178606147</v>
+        <v>-8.212195683154391</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.01674575642308</v>
+        <v>30.9193463384928</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.25583145275557</v>
+        <v>38.80498572171268</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-8.075248459606918</v>
+        <v>9.829799589451227</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>13.39025413477142</v>
+        <v>20.63796098261935</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>15.12365610564556</v>
+        <v>26.02918673368401</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.77064026434122</v>
+        <v>22.22079434855925</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.25168964438009</v>
+        <v>25.7377212584372</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-1.664671699065906</v>
+        <v>-8.142603556988433</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>43.10417650045112</v>
+        <v>30.98511414044549</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.85183961020394</v>
+        <v>38.86916665282001</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.4236609850536</v>
+        <v>9.900716538133565</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.82688361787503</v>
+        <v>20.70605737597248</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>43.04973260971086</v>
+        <v>26.09626081824513</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>46.18464728026456</v>
+        <v>22.28913121917299</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.06905103091772</v>
+        <v>25.8039856706481</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>42.67814184756848</v>
+        <v>29.62964108244375</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>46.22101824237818</v>
+        <v>34.47171122026396</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>52.14340551870202</v>
+        <v>41.64125315994011</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.21595785092779</v>
+        <v>44.95970651275718</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.30013068368697</v>
+        <v>18.35819736178416</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.10992947873061</v>
+        <v>35.61781084508141</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>49.01377941416543</v>
+        <v>41.65367393199483</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-7.087991855014401</v>
+        <v>-4.663098795442011</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.86028067679153</v>
+        <v>34.46847831645425</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.27565640939429</v>
+        <v>42.35410843702937</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-7.765845703960998</v>
+        <v>13.37923277783773</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>14.40600065757004</v>
+        <v>24.18747591509953</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.12504277666489</v>
+        <v>29.57869274289385</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.04033228182973</v>
+        <v>25.77027437976687</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.87069164205278</v>
+        <v>29.28728842955229</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>1.97762753234057</v>
+        <v>-14.71805318409827</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.44915611481177</v>
+        <v>24.40936304666809</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.88489505538609</v>
+        <v>32.29351673287226</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.21745069206085</v>
+        <v>3.324587158966324</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.16226433114748</v>
+        <v>14.12972801761271</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.78155138300043</v>
+        <v>19.52002779510383</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.63455037231883</v>
+        <v>15.71277817985322</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.76719692444534</v>
+        <v>19.22745959433928</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.89082004511936</v>
+        <v>23.0532037567317</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.95521930987895</v>
+        <v>27.89503442331693</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.51834294725095</v>
+        <v>35.06452140839167</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.86921666051819</v>
+        <v>38.3830182490907</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.09951828553839</v>
+        <v>11.78173597858199</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>38.91046259170305</v>
+        <v>29.04110882088253</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.75755019641284</v>
+        <v>35.07707732214817</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.08793260963438598</v>
+        <v>-11.23947994527225</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.59554369749586</v>
+        <v>27.89179567689985</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.93461486501452</v>
+        <v>35.77752697022845</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-3.303613318648253</v>
+        <v>6.802171773752548</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.11827590644131</v>
+        <v>17.61021491830627</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.22041765884832</v>
+        <v>23.00152808057976</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.13443847949869</v>
+        <v>19.1929896890523</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.26495829916026</v>
+        <v>22.70983069127669</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.86867074663863</v>
+        <v>23.13680134850881</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.5663040847734</v>
+        <v>27.97984037343497</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.7983781170132</v>
+        <v>35.15075507486733</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.11047331092698</v>
+        <v>38.46997349125866</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.05656410587776</v>
+        <v>11.86576437598308</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.43417319380002</v>
+        <v>29.12810712148735</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.56902199927143</v>
+        <v>35.16524864750397</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>18.10168050992598</v>
+        <v>-5.75840687918992</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.88668296695148</v>
+        <v>33.37263797503465</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.12273556316701</v>
+        <v>41.25880379388173</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-5.013078735548575</v>
+        <v>12.28456324519141</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.18504252441087</v>
+        <v>23.09291428487188</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.43413801592268</v>
+        <v>28.48457477571878</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.73996661814522</v>
+        <v>24.67587514471097</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.95072826395191</v>
+        <v>28.19315519516215</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.74129178012023</v>
+        <v>32.02000710230686</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.86445779022615</v>
+        <v>36.86454136257385</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.30710059860098</v>
+        <v>44.03565177187238</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.42212311073747</v>
+        <v>47.35508895990517</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.92012552646836</v>
+        <v>20.74986282573263</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.19707940173816</v>
+        <v>38.01264235999292</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.99347866959532</v>
+        <v>44.05022933089788</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.43474410918112</v>
+        <v>29.56419810189141</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.32303559940566</v>
+        <v>34.40747936848175</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>23.7183200387981</v>
+        <v>41.5784876014244</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.01825175162192</v>
+        <v>44.89769680708696</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>11.55439589945239</v>
+        <v>18.29308757022375</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.54999718688873</v>
+        <v>35.55578608353608</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.84288785426543</v>
+        <v>41.5928852740318</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-11.09183150173749</v>
+        <v>0.6680971455089093</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.94411345756255</v>
+        <v>39.79964859237509</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>41.81274538231462</v>
+        <v>47.68578588895139</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-3.546685811390347</v>
+        <v>18.71190037347719</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.0663486542706</v>
+        <v>29.52053908741686</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>21.05384220872951</v>
+        <v>34.91215878831144</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.25282646920695</v>
+        <v>31.10348268607413</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.30819766524661</v>
+        <v>34.6209855404436</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.39363545640589</v>
+        <v>38.44779492117914</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.3491401846367</v>
+        <v>43.29257142777055</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.29458987753863</v>
+        <v>50.46377536714635</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.85342323974221</v>
+        <v>53.78320334242403</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.24579771559386</v>
+        <v>27.17757708896136</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.56934204160171</v>
+        <v>44.44071238646654</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.887300814689</v>
+        <v>50.47825701926911</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>14.99409109324288</v>
+        <v>33.1137614432181</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.54504958158821</v>
+        <v>37.95703604459004</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.39020924330805</v>
+        <v>45.12805121779263</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.87996829599215</v>
+        <v>48.44725827700324</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.74215780583202</v>
+        <v>21.84257642629848</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.5987803036946</v>
+        <v>39.10535361411735</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.2623672560495</v>
+        <v>45.1424454613549</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-10.45813871158212</v>
+        <v>4.217361934404494</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.61025392336323</v>
+        <v>43.34894847073281</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.51665477850344</v>
+        <v>51.23507649965609</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-3.623368122194748</v>
+        <v>22.26150146850557</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.26035439335783</v>
+        <v>33.07022192461704</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.75881180054629</v>
+        <v>38.46183269801145</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.31403720131569</v>
+        <v>34.65313062629059</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.77630540167682</v>
+        <v>38.17072061816316</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.96608290546854</v>
+        <v>41.99752616640626</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.89944414888347</v>
+        <v>46.84229600356946</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.78497067446124</v>
+        <v>54.01350688248579</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.26700712010241</v>
+        <v>57.33293270932847</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.26269123814136</v>
+        <v>30.72723384360472</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.75773488841146</v>
+        <v>47.99044781311898</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.79556610664731</v>
+        <v>54.02798509848844</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.48731116582764</v>
+        <v>26.53639245441968</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>17.60010116139541</v>
+        <v>31.37942758660654</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.04013099652027</v>
+        <v>38.55038780423979</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.47135511741266</v>
+        <v>41.86963835401207</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>14.51367971963163</v>
+        <v>15.26518339825759</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.75967873520522</v>
+        <v>32.52771992797693</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.85346534131359</v>
+        <v>38.56491718874952</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1.65989839058496</v>
+        <v>-2.359229844901392</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.85817462581141</v>
+        <v>36.77205520754512</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>41.98539171108307</v>
+        <v>44.65828441362612</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>0.9958940595121142</v>
+        <v>15.68422981255617</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.86269766590112</v>
+        <v>26.49275028312184</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.87630805500402</v>
+        <v>31.88445739373151</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.23277443402198</v>
+        <v>28.07563528415324</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.81619679000778</v>
+        <v>31.59305223620095</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.66471541983734</v>
+        <v>35.4199465349318</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.19501902185572</v>
+        <v>40.26447690485588</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.99508308561179</v>
+        <v>47.43563283071239</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.40015474257925</v>
+        <v>50.75510215013685</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.20391720134175</v>
+        <v>24.14963016837248</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>43.44687560644584</v>
+        <v>41.41260348830508</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.20428677849864</v>
+        <v>47.4502461898262</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.57810542778492</v>
+        <v>-6.591300561862226</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.59474229306649</v>
+        <v>32.53744341393678</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.1557068735977</v>
+        <v>40.42225236359445</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.29402262145696</v>
+        <v>11.45239490724191</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.72898440159462</v>
+        <v>22.25774464262656</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.13646571804514</v>
+        <v>27.64851730026157</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.82453329562582</v>
+        <v>23.84124026166569</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.90702341680288</v>
+        <v>27.35583620017655</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.33610806005486</v>
+        <v>31.18195788932849</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.68032759393159</v>
+        <v>36.02356668506707</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.96151614408125</v>
+        <v>43.19330859563775</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.96819932666494</v>
+        <v>46.51214459939786</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.30659401622038</v>
+        <v>19.90955296698496</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.43982548441921</v>
+        <v>37.16936605263436</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.16810692927879</v>
+        <v>43.20587651289111</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.54115573622677</v>
+        <v>-3.109621094202794</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.57742433370077</v>
+        <v>36.02298242944482</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.34596522603801</v>
+        <v>43.90936913839414</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.94124896734327</v>
+        <v>14.93308590445304</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.5132998808847</v>
+        <v>25.74133805873748</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.39614293924711</v>
+        <v>31.13312420953935</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.1816298495865</v>
+        <v>27.32455827861872</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.81059885250888</v>
+        <v>30.84131390799405</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.38723728762708</v>
+        <v>-0.1656611902700433</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.59469158365685</v>
+        <v>38.96358936386821</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.98397478694073</v>
+        <v>46.84836978772773</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.80411984388907</v>
+        <v>17.87886730139996</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.42136098400486</v>
+        <v>28.68450469860045</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.74201303919992</v>
+        <v>34.07523656167996</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.41204371894428</v>
+        <v>30.26798303935266</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.05959437392335</v>
+        <v>33.78280177428792</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.82170926951311</v>
+        <v>37.60888093065114</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.62232313475934</v>
+        <v>42.45073197930674</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.33337155158416</v>
+        <v>49.62056741819902</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.30468434825062</v>
+        <v>52.93939420958054</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>32.14634796123259</v>
+        <v>26.33640245784591</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.60761979149267</v>
+        <v>43.59657129481138</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.36754115751494</v>
+        <v>49.63303941119239</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.07466200901964</v>
+        <v>3.317015411509942</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.17099872463116</v>
+        <v>42.45012555400353</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.74215493163994</v>
+        <v>50.33648374969096</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.9523926687124</v>
+        <v>21.36055553616893</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.21013696012428</v>
+        <v>32.16909538165044</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.74914753022227</v>
+        <v>37.56084074554724</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.04533216373606</v>
+        <v>33.75229833418837</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.13765046596886</v>
+        <v>37.26927678321044</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.10599066661954</v>
+        <v>3.383197127324252</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>33.25571480476644</v>
+        <v>42.51248277121397</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.56884806658576</v>
+        <v>50.3972539338165</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.82705128713943</v>
+        <v>21.42806189243913</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.37311656021445</v>
+        <v>32.23378103598372</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.86306809467312</v>
+        <v>37.62450397591692</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.59218287258187</v>
+        <v>33.81722447132472</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.07942527127312</v>
+        <v>37.33213034755136</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.93219575115004</v>
+        <v>41.15820567410185</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.06474532679029</v>
+        <v>46.00005007960294</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.74474162250453</v>
+        <v>53.16989246163723</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.71018495245239</v>
+        <v>56.48871710846322</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.306705702287</v>
+        <v>29.88565273363145</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.73732508765123</v>
+        <v>47.14590024611516</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.41295314178549</v>
+        <v>53.18236102002959</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.84029437451597</v>
+        <v>6.866325063057729</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.50749421679446</v>
+        <v>45.99947029811312</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.82522112979267</v>
+        <v>53.88581923193112</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.79008822951154</v>
+        <v>24.91020150578709</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.00563029090047</v>
+        <v>35.7188231000257</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.0893187165752</v>
+        <v>41.11055954017718</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.16535568382286</v>
+        <v>37.3019911506766</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.92740722905548</v>
+        <v>40.8190567445165</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.7375734581927</v>
+        <v>-3.192679151482025</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>32.82695459869115</v>
+        <v>35.93630501387975</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>32.78809611654282</v>
+        <v>43.82117734989106</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.44222136500577</v>
+        <v>14.85150581440701</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.26027423932602</v>
+        <v>25.65702497001337</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.84625977839883</v>
+        <v>31.04784424799243</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.19302767527245</v>
+        <v>27.24044471959553</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.05864254158795</v>
+        <v>30.7551775511248</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.41217879134854</v>
+        <v>34.58134163082423</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.9267948131044</v>
+        <v>39.422946552447</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.41891971895389</v>
+        <v>46.59273397698541</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.51463094521202</v>
+        <v>49.91160211265276</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.91583903740594</v>
+        <v>23.30876463153015</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.5242351900328</v>
+        <v>40.5687714925424</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.45508373609346</v>
+        <v>46.60533768283449</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.6292146538791</v>
+        <v>0.2895172271064439</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.33754067333635</v>
+        <v>39.4223609606106</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>33.14576807750692</v>
+        <v>47.30881106679578</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>27.80346927489375</v>
+        <v>18.33271376891071</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.76591651829277</v>
+        <v>29.14113536151615</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.03873405713227</v>
+        <v>34.53296813897555</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.26883342592613</v>
+        <v>30.7242797141248</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.72133306744978</v>
+        <v>34.24117225201041</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.19030996404763</v>
+        <v>34.66825329203425</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.18052266028451</v>
+        <v>39.51106650009694</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.59129385735325</v>
+        <v>46.68228171841679</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.59834308184076</v>
+        <v>50.00187150645752</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.89034941957611</v>
+        <v>23.39610692528561</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.47188512455984</v>
+        <v>40.6590838398414</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.15333174758506</v>
+        <v>46.69682318838761</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.72729116263857</v>
+        <v>5.769755164832532</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.17043011972</v>
+        <v>44.90236809781709</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.99843988651578</v>
+        <v>52.78925276389225</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.45873380174227</v>
+        <v>23.81427011082769</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.65980779103417</v>
+        <v>34.62299959610391</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.55126187191839</v>
+        <v>40.01517972290105</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.06176143077334</v>
+        <v>36.20633001938495</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.93835463910417</v>
+        <v>39.72366161447223</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.90401584720928</v>
+        <v>43.55093355476924</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.43213718572498</v>
+        <v>48.39524206818794</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.9826261108575</v>
+        <v>55.56665299997326</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.99979825000438</v>
+        <v>58.88646156849904</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.04817025188654</v>
+        <v>32.27967994360654</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.72728242819935</v>
+        <v>49.54309365067604</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.54099317225602</v>
+        <v>55.58127847252274</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.57738075368948</v>
+        <v>41.09617364125415</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.32325435152693</v>
+        <v>45.93922909831053</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.98970477197996</v>
+        <v>53.11053785238516</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.19481553087054</v>
+        <v>56.43011843158865</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.16318754773568</v>
+        <v>29.8239537048247</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.85719971859247</v>
+        <v>47.0872864039942</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.42175814597928</v>
+        <v>53.12498341868252</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.69725595392759</v>
+        <v>12.19678271275723</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.34511572238067</v>
+        <v>51.32990226042148</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.58555366730779</v>
+        <v>59.21675840893977</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.19974081378918</v>
+        <v>30.24213082097185</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.94885270224658</v>
+        <v>41.05114799401917</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.75216422774033</v>
+        <v>46.4432873314106</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.98476864178508</v>
+        <v>42.63446115988518</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.05341084923081</v>
+        <v>46.15201556979343</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.74632785370371</v>
+        <v>49.97924498396526</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.28201819013364</v>
+        <v>54.82379575095024</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.24889332209486</v>
+        <v>61.99530021707517</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.38401745467827</v>
+        <v>65.31509957442893</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.65967759466658</v>
+        <v>38.70791780667889</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.19596671611832</v>
+        <v>55.97168729375869</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.57559384159552</v>
+        <v>62.00982977925185</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.91611767900732</v>
+        <v>44.64594977251102</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.15596908791321</v>
+        <v>49.48899856365438</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.72675181914574</v>
+        <v>56.66031425807819</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.21751160539252</v>
+        <v>59.97989269076515</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.26237925006777</v>
+        <v>33.37365534600553</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.63847972816039</v>
+        <v>50.63706672345086</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.70769662421183</v>
+        <v>56.67475639509428</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.28283617066349</v>
+        <v>15.74626027033696</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.29134807957794</v>
+        <v>54.87941490972969</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.28675643526929</v>
+        <v>62.76626179110076</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.59767679437876</v>
+        <v>33.79194470166351</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.03512839298357</v>
+        <v>44.60104362156244</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.60601760128745</v>
+        <v>49.99317403108648</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.37009183137022</v>
+        <v>46.18432188966392</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.99110252143977</v>
+        <v>49.70196344202168</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.15197950691236</v>
+        <v>53.52918902344595</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>32.22841360266177</v>
+        <v>58.37373312039608</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.06748122663588</v>
+        <v>65.54524452596547</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.42628201905183</v>
+        <v>68.86504173493233</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.82581602474249</v>
+        <v>42.25778735014319</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.88506035946873</v>
+        <v>59.52163551381727</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.6936781659326</v>
+        <v>65.55977065201012</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.29271978153848</v>
+        <v>38.06815403208441</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.75817161071122</v>
+        <v>42.91096334095096</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.31394526690716</v>
+        <v>50.08222407691835</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.84086203410737</v>
+        <v>53.4018460012295</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.316283276897</v>
+        <v>26.7958355642578</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.44668183752119</v>
+        <v>44.05900627399342</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>32.41194409442623</v>
+        <v>50.09680136088571</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.90650983691384</v>
+        <v>9.169241793321589</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.97407192137211</v>
+        <v>48.3020949370549</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.13592322340455</v>
+        <v>56.18904299553662</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.70211386725718</v>
+        <v>27.2142463010465</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.71934127204933</v>
+        <v>38.02314522630422</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.59237410791467</v>
+        <v>43.41537197589082</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.92888258517728</v>
+        <v>39.60639978965071</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.82082341352222</v>
+        <v>43.12386829416448</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>32.60619930394117</v>
+        <v>46.95118262858216</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.58831988859684</v>
+        <v>51.79548724488575</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.26412099422105</v>
+        <v>58.96694369471822</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.89658709791677</v>
+        <v>62.28678439719158</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.44593544588022</v>
+        <v>35.67975690980313</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.04196220166286</v>
+        <v>52.94336441360508</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>33.05621256714164</v>
+        <v>58.98160496993125</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-21.7865748735403</v>
+        <v>-21.78657487348312</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.34066503215138</v>
+        <v>17.34066503214797</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.22532830876185</v>
+        <v>25.22532830876924</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.744480525543622</v>
+        <v>-3.744480525572271</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.059963675728795</v>
+        <v>7.059963675815425</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.45062718026054</v>
+        <v>12.45062718027884</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.643550734169821</v>
+        <v>8.64355073409331</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.15745566010196</v>
+        <v>12.15745566013334</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.98350228789161</v>
+        <v>15.98350228785546</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.8252790806381</v>
+        <v>20.82527908054817</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.99462848284907</v>
+        <v>27.99462848287249</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.31341623457456</v>
+        <v>31.3134162346098</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.712246441040747</v>
+        <v>4.71224644102881</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.97096817677516</v>
+        <v>21.97096817678289</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.0073631326386</v>
+        <v>28.00736313264667</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-18.30469979703662</v>
+        <v>-18.30469979703219</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.82639956199318</v>
+        <v>20.82639956197431</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.71264059480563</v>
+        <v>28.71264059479768</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.2635938928149244</v>
+        <v>-0.2635938927910502</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.54375264692737</v>
+        <v>10.54375264695977</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.93542965271843</v>
+        <v>15.93542965274605</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.12706432582786</v>
+        <v>12.1270643258099</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.64312887919061</v>
+        <v>15.64312887908852</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-15.36118306570563</v>
+        <v>-15.36118306567869</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.76656340315697</v>
+        <v>23.76656340311479</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.65119815577987</v>
+        <v>31.65119815578021</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.681744278354358</v>
+        <v>2.681744278307747</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13.48647613118703</v>
+        <v>13.4864761311884</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18.87709884303604</v>
+        <v>18.87709884308481</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.07004591399664</v>
+        <v>15.07004591396958</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.58417362734656</v>
+        <v>18.58417362734531</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.41017772426471</v>
+        <v>22.41017772429802</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.25219676664335</v>
+        <v>27.25219676662846</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.4216396940119</v>
+        <v>34.42163969403452</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.74041823459697</v>
+        <v>37.7404182345706</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.13884833390216</v>
+        <v>11.13884833385441</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.39792580871358</v>
+        <v>28.39792580882681</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.43427842335791</v>
+        <v>34.43427842340964</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-11.87831087731774</v>
+        <v>-11.8783108773041</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.25329508582388</v>
+        <v>27.25329508586424</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.13950760782586</v>
+        <v>35.13950760784792</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.16362812647003</v>
+        <v>6.163628126467188</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.97126234736049</v>
+        <v>16.9712623474079</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.36289856846236</v>
+        <v>22.36289856848771</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.07084412498682</v>
+        <v>22.07084412503445</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-11.81235981827217</v>
+        <v>-11.81235981819202</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.31542174125445</v>
+        <v>27.31542174122853</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.20004723395061</v>
+        <v>35.20004723396005</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.230903794545497</v>
+        <v>6.230903794541973</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.03571739382369</v>
+        <v>17.03571739390873</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.42633118353172</v>
+        <v>22.42633118353831</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.61925227258496</v>
+        <v>18.61925227256359</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.13346712698979</v>
+        <v>22.1334671270065</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.95946739465262</v>
+        <v>25.95946739470571</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.80147979300148</v>
+        <v>30.80147979299193</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.97092966377727</v>
+        <v>37.97092966383491</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.28970605995607</v>
+        <v>41.28970606000667</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.68806353540992</v>
+        <v>14.68806353542573</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.94721968600027</v>
+        <v>31.94721968608212</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.98356495882922</v>
+        <v>37.98356495884866</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-8.329036304457873</v>
+        <v>-8.329036304384317</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.80260475160765</v>
+        <v>30.80260475163936</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.68880801272837</v>
+        <v>38.68880801273394</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.713239012463305</v>
+        <v>9.713239012543113</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.52095498169228</v>
+        <v>20.52095498181666</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.91258227984656</v>
+        <v>25.91258227993092</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.10421449439536</v>
+        <v>22.10421449452315</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.62058900215948</v>
+        <v>25.62058900223292</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-18.38804224018168</v>
+        <v>-18.3880422401935</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>20.73943784836149</v>
+        <v>20.73943784834103</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.62416451130366</v>
+        <v>28.6241645113098</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.3454584092477262</v>
+        <v>-0.3454584092199866</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.4591552070566</v>
+        <v>10.45915520710571</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.84986533158565</v>
+        <v>15.84986533157655</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>12.04266640030596</v>
+        <v>12.04266640034473</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.55670821503338</v>
+        <v>15.55670821507783</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.38279723277105</v>
+        <v>19.38279723281335</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.22457015041641</v>
+        <v>24.2245701504097</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.39396506545791</v>
+        <v>31.39396506549838</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.71278494895967</v>
+        <v>34.71278494899684</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.111369312739726</v>
+        <v>8.111369312696297</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.37028481837842</v>
+        <v>25.37028481842538</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.40673550425674</v>
+        <v>31.40673550420979</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-14.90565026257275</v>
+        <v>-14.90565026260117</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.22568929978183</v>
+        <v>24.22568929972033</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.11199373001114</v>
+        <v>32.11199372998237</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3.135945171134495</v>
+        <v>3.135945171138815</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.9434611435945</v>
+        <v>13.94346114368034</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.33518477581947</v>
+        <v>19.33518477589257</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>15.52669695884947</v>
+        <v>15.52669695887801</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.04289841585387</v>
+        <v>19.0428984158691</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.46999320698376</v>
+        <v>19.46999320697273</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.31297440094022</v>
+        <v>24.31297440090634</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.48379707201457</v>
+        <v>31.4837970720389</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.80333860681003</v>
+        <v>34.80333860686494</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.198995923585699</v>
+        <v>8.198995923541588</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.46088140214306</v>
+        <v>25.46088140213476</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.49850525064664</v>
+        <v>31.49850525065733</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-9.424593819603729</v>
+        <v>-9.424593819665233</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.70651499240046</v>
+        <v>29.70651499240751</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.59325396846157</v>
+        <v>37.59325396846782</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8.61832004776204</v>
+        <v>8.618320047792054</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.42614394654379</v>
+        <v>19.42614394658028</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.81821491191658</v>
+        <v>24.81821491194285</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.0095658249985</v>
+        <v>21.00956582497895</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.52620636447125</v>
+        <v>24.52620636437803</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.35340323492107</v>
+        <v>28.35340323489777</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.19787967156299</v>
+        <v>33.19787967156117</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.36889806563192</v>
+        <v>40.36889806567842</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>43.68865837491467</v>
+        <v>43.68865837500266</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>17.08329862037783</v>
+        <v>17.08329862039011</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.34562092429803</v>
+        <v>34.34562092438205</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.38369022948609</v>
+        <v>40.38369022950894</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.89766592924195</v>
+        <v>25.8976659292257</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.74088936886471</v>
+        <v>30.74088936885585</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.91180557268149</v>
+        <v>37.9118055726326</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.23133789933149</v>
+        <v>41.23133789935275</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.62659508388356</v>
+        <v>14.62659508385343</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.88883633468936</v>
+        <v>31.88883633465377</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.92641785184753</v>
+        <v>37.92641785190244</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-2.99781385517872</v>
+        <v>-2.997813855172922</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.13380155707523</v>
+        <v>36.13380155708535</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.02051201789891</v>
+        <v>44.02051201792392</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.04593314800252</v>
+        <v>15.04593314796944</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.85404472425057</v>
+        <v>25.85404472436335</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.24607490232836</v>
+        <v>31.24607490243102</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.4374493475807</v>
+        <v>27.43744934755159</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.95431269278254</v>
+        <v>30.95431269288463</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.78146703913535</v>
+        <v>34.78146703921948</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39.62618572632277</v>
+        <v>39.62618572630231</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.7972976516578</v>
+        <v>46.79729765168634</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>50.11704875098496</v>
+        <v>50.11704875100827</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.51128886670278</v>
+        <v>23.51128886661411</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.77396693798164</v>
+        <v>40.7739669379614</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.81199390927463</v>
+        <v>46.81199390932204</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.44740697703719</v>
+        <v>29.44740697713939</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.29062375079025</v>
+        <v>34.29062375087551</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.46154689539867</v>
+        <v>41.46154689549826</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.78107707618665</v>
+        <v>44.78107707624997</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.17626164110243</v>
+        <v>18.17626164108503</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>35.43858157042894</v>
+        <v>35.43858157053955</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.47615574524139</v>
+        <v>41.47615574528515</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.5516286194470013</v>
+        <v>0.5516286194541635</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.6832791237515</v>
+        <v>39.68327912379584</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>47.56998031841727</v>
+        <v>47.56998031841704</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.59571194126931</v>
+        <v>18.59571194124874</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.40390526441058</v>
+        <v>29.40390526451949</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.79592651571215</v>
+        <v>34.7959265157499</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.98727499066115</v>
+        <v>30.98727499066092</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.50422547775463</v>
+        <v>34.50422547781818</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.33137599187194</v>
+        <v>38.33137599193265</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.17608800839014</v>
+        <v>43.17608800841526</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>50.34720687361937</v>
+        <v>50.34720687368963</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53.66695582502655</v>
+        <v>53.66695582503542</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.06112332305963</v>
+        <v>27.0611233230336</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>44.32388007095028</v>
+        <v>44.32388007102668</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>50.36189969578095</v>
+        <v>50.36189969579584</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.86980513951971</v>
+        <v>22.86980513955655</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.71278243380698</v>
+        <v>27.71278243380766</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.88365062137814</v>
+        <v>34.88365062143146</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.20322429221756</v>
+        <v>38.20322429222642</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.59863576028101</v>
+        <v>11.59863576025612</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.86071502795119</v>
+        <v>28.86071502791435</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.89839461443853</v>
+        <v>34.89839461444342</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-6.025195981583238</v>
+        <v>-6.025195981541515</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.10615303453051</v>
+        <v>33.10615303451016</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.99295540290279</v>
+        <v>40.99295540286903</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>12.01820743361066</v>
+        <v>12.01820743359019</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.82620076727915</v>
+        <v>22.82620076729279</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.21831835521527</v>
+        <v>28.21831835522664</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.4095467892721</v>
+        <v>24.4095467892389</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.92632423340149</v>
+        <v>27.92632423341263</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.7535634978201</v>
+        <v>31.75356349779236</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.59803603653393</v>
+        <v>36.59803603653131</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.76909994781624</v>
+        <v>43.76909994782341</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.0888923912056</v>
+        <v>47.08889239120106</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.48328678100586</v>
+        <v>20.48328678102382</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.74580287540175</v>
+        <v>37.7458028754304</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.78392791481701</v>
+        <v>43.78392791487954</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-11.10236544106863</v>
+        <v>-11.10236544106692</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.02377705363949</v>
+        <v>28.02377705356412</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.90767717097958</v>
+        <v>35.90767717097333</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.940053273108674</v>
+        <v>6.940053273130729</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.74482895579479</v>
+        <v>17.74482895572726</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.13491552421954</v>
+        <v>23.13491552424409</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.3278827971825</v>
+        <v>19.32788279717158</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.84244707394737</v>
+        <v>22.84244707385403</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.66802774606799</v>
+        <v>26.66802774607288</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.50961667575314</v>
+        <v>31.50961667571187</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.67892222264106</v>
+        <v>38.67892222258797</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.99734098454053</v>
+        <v>41.99734098447118</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.3966994087375</v>
+        <v>15.39669940868907</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.65551000543076</v>
+        <v>32.65551000543462</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.69125295333413</v>
+        <v>38.69125295336448</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-7.623181858837256</v>
+        <v>-7.623181858844305</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.5068198736642</v>
+        <v>31.5068198736501</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.39229754188102</v>
+        <v>39.39229754185749</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.4182483157731</v>
+        <v>10.41824831578685</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.22592617405542</v>
+        <v>21.22592617396265</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.61702608263977</v>
+        <v>26.61702608264784</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.80870464966563</v>
+        <v>22.80870464962118</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.32542843044337</v>
+        <v>26.32542843044621</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-4.677364893711001</v>
+        <v>-4.677364893697813</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.44928414176127</v>
+        <v>34.44928414178116</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.33315573053517</v>
+        <v>42.33315573049617</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>13.3658867692352</v>
+        <v>13.36588676920837</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.17095009204718</v>
+        <v>24.17095009205661</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.56099586585674</v>
+        <v>29.56099586586777</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.7539866526123</v>
+        <v>25.75398665255545</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.26877370874979</v>
+        <v>29.26877370874149</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.09431184832067</v>
+        <v>33.09431184831249</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.93614301488628</v>
+        <v>37.93614301491175</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>45.10554208336771</v>
+        <v>45.10554208336305</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.42395163183562</v>
+        <v>48.42395163186154</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.82290996982385</v>
+        <v>21.82290996981612</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.08207629150218</v>
+        <v>39.0820762914766</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.11777689487815</v>
+        <v>45.11777689486837</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-1.197184268552064</v>
+        <v>-1.197184268544106</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37.93332404591547</v>
+        <v>37.93332404585976</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.81877319831085</v>
+        <v>45.81877319830699</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>16.84507895862635</v>
+        <v>16.84507895856677</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.65304448672555</v>
+        <v>27.65304448671384</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.04410360857889</v>
+        <v>33.04410360854627</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.23580569160754</v>
+        <v>29.23580569158412</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>32.7527522754217</v>
+        <v>32.7527522754026</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-1.128818188292826</v>
+        <v>-1.128818188294645</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>37.99786593286035</v>
+        <v>37.99786593289025</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>45.88172826023208</v>
+        <v>45.88172826021116</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.91476971954864</v>
+        <v>16.91476971953784</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.71991478117229</v>
+        <v>27.71991478121424</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.10995163196515</v>
+        <v>33.10995163200676</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.30291643839382</v>
+        <v>29.30291643842577</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>32.81779062861256</v>
+        <v>32.81779062859971</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.64332493810514</v>
+        <v>36.64332493810298</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.4851494638466</v>
+        <v>41.48514946383682</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>48.65455547443048</v>
+        <v>48.65455547450154</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.97296287789527</v>
+        <v>51.97296287789914</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.37184859981471</v>
+        <v>25.37184859984472</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42.63109358974248</v>
+        <v>42.63109358974771</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>48.66678685058162</v>
+        <v>48.66678685057127</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2.351813738202623</v>
+        <v>2.351813738292208</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>41.48235714079749</v>
+        <v>41.48235714076236</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.36779703106686</v>
+        <v>49.36779703110233</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.39441325382825</v>
+        <v>20.39441325380449</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.20246052327525</v>
+        <v>31.2024605232657</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.59351072134973</v>
+        <v>36.59351072136235</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.78518682855588</v>
+        <v>32.78518682849824</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.30222054941896</v>
+        <v>36.30222054948763</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-7.704088986144939</v>
+        <v>-7.704088986167221</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.42229367877212</v>
+        <v>31.42229367877997</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.3062571749482</v>
+        <v>39.30625717495263</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.33881918418786</v>
+        <v>10.33881918420366</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.14376427348839</v>
+        <v>21.14376427348532</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.53389745638083</v>
+        <v>26.53389745637367</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.72674225010996</v>
+        <v>22.72674225007245</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.24144340880787</v>
+        <v>26.24144340879036</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.06706646618647</v>
+        <v>30.06706646619944</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.90865152725303</v>
+        <v>34.90865152724029</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.07800258516102</v>
+        <v>42.07800258515056</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.39645347490182</v>
+        <v>45.39645347485839</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>18.79556607064046</v>
+        <v>18.795566070635</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.05457042767341</v>
+        <v>36.05457042766534</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.09036909888175</v>
+        <v>42.09036909883673</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-4.224388543538453</v>
+        <v>-4.224388543587338</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.90585338047538</v>
+        <v>34.90585338045685</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.79139443834686</v>
+        <v>42.79139443833856</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>13.8175311337618</v>
+        <v>13.81753113374293</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.62537841712651</v>
+        <v>24.62537841710184</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.0165249466645</v>
+        <v>30.01652494664688</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.20808102884962</v>
+        <v>26.20808102880778</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.72494170748894</v>
+        <v>29.72494170747768</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.15182666595229</v>
+        <v>30.1518266659466</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.99462004367626</v>
+        <v>34.99462004358634</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.16539877866057</v>
+        <v>42.16539877861533</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>45.48457122597472</v>
+        <v>45.48457122588093</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.88075706686459</v>
+        <v>18.88075706686573</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.14273122885936</v>
+        <v>36.14273122880752</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.17970288630079</v>
+        <v>42.17970288626725</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.255853747406604</v>
+        <v>1.255853747450146</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.38586488118347</v>
+        <v>40.38586488121609</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.2718404775535</v>
+        <v>48.27184047761352</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.29909174813542</v>
+        <v>19.29909174817521</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.10724689696383</v>
+        <v>30.10724689700442</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.49874076334459</v>
+        <v>35.49874076337358</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.69013559129826</v>
+        <v>31.69013559135362</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.20743528670164</v>
+        <v>35.20743528676712</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.03416606222868</v>
+        <v>39.03416606222709</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.8784546333078</v>
+        <v>43.87845463328756</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>51.04942906460099</v>
+        <v>51.04942906465203</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.36882028413152</v>
+        <v>54.3688202841397</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.76398916120968</v>
+        <v>27.76398916121445</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.02640007510126</v>
+        <v>45.02640007515026</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.06381718284308</v>
+        <v>51.06381718284604</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.57910798554019</v>
+        <v>36.57910798551802</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.42214359705531</v>
+        <v>41.42214359702461</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.59301586086406</v>
+        <v>48.59301586083518</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.91217909765987</v>
+        <v>51.91217909767204</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.30796482672315</v>
+        <v>25.30796482672542</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.57029474642184</v>
+        <v>42.57029474646663</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.60722406942273</v>
+        <v>48.60722406936361</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.682242347397619</v>
+        <v>7.68224234742047</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.72631343621697</v>
+        <v>25.72631343624096</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.53475625105398</v>
+        <v>36.53475625108217</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.92620932830789</v>
+        <v>41.92620932836326</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.11762768519384</v>
+        <v>38.11762768520487</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.63515017862971</v>
+        <v>41.63515017862244</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.46183842851963</v>
+        <v>45.46183842851951</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>50.30636923768213</v>
+        <v>50.30636923766156</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.4774371964071</v>
+        <v>57.47743719640766</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.79681920377129</v>
+        <v>60.79681920380699</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.19158797115062</v>
+        <v>34.19158797115801</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>51.45435463818035</v>
+        <v>51.45435463816932</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>57.49172940921608</v>
+        <v>57.49172940923904</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.12857242946734</v>
+        <v>40.12857242950781</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.97160137642334</v>
+        <v>44.97160137647245</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>52.14248057957479</v>
+        <v>52.14248057958491</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.4616416699015</v>
+        <v>55.46164166997085</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.85735478791139</v>
+        <v>28.85735478786933</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.11976337899728</v>
+        <v>46.11976337896806</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.15668535867587</v>
+        <v>52.15668535861516</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.23140824765562</v>
+        <v>11.23140824770314</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50.36196104646103</v>
+        <v>50.36196104648161</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>58.2478988553604</v>
+        <v>58.24789885538951</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.27581563115405</v>
+        <v>29.27581563116371</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>40.0843401855268</v>
+        <v>40.08434018553066</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.47578433481408</v>
+        <v>45.47578433484682</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>41.66717672347011</v>
+        <v>41.667176723475</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>45.18478635185863</v>
+        <v>45.18478635185716</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.01147076873042</v>
+        <v>49.01147076873565</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>53.85599490966467</v>
+        <v>53.85599490968991</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.02706980710173</v>
+        <v>61.027069807148</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>64.34644966567157</v>
+        <v>64.34644966574854</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.74114582365291</v>
+        <v>37.74114582363677</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>55.00399116025903</v>
+        <v>55.003991160277</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61.04135858367169</v>
+        <v>61.04135858369864</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.55138233422815</v>
+        <v>33.5513823342153</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.39417181789679</v>
+        <v>38.39417181788849</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.56499606762407</v>
+        <v>45.56499606761167</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.88420064692787</v>
+        <v>48.88420064692491</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.2801406532252</v>
+        <v>22.28014065318075</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.54230859494896</v>
+        <v>39.5423085949443</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.57933598404975</v>
+        <v>45.57933598404566</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.654995346756436</v>
+        <v>4.654995346729834</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.7852466721921</v>
+        <v>43.78524667219858</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.67128565355063</v>
+        <v>51.67128565357189</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.69872286882571</v>
+        <v>22.6987228688198</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.50704744427708</v>
+        <v>33.50704744429481</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.89858792756968</v>
+        <v>38.89858792759389</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.08986028265986</v>
+        <v>35.08986028267896</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.60729687640207</v>
+        <v>38.60729687641083</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.43407004113544</v>
+        <v>42.43407004110804</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.27835472045842</v>
+        <v>47.27835472044569</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.44937466678959</v>
+        <v>54.44937466678346</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>57.76879801643395</v>
+        <v>57.76879801642826</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>31.16372105188441</v>
+        <v>31.16372105185383</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.42632574657057</v>
+        <v>48.42632574656045</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.46379858248019</v>
+        <v>54.46379858248224</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-12.72884619010597</v>
+        <v>-12.72884619010063</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.39828285268095</v>
+        <v>26.39828285273734</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.2822975870032</v>
+        <v>34.28229758704686</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.31358887344345</v>
+        <v>5.313588873347157</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.11869423601183</v>
+        <v>16.11869423597568</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.50883384962492</v>
+        <v>21.50883384965425</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.7017135344978</v>
+        <v>17.70171353440867</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.21641883302686</v>
+        <v>21.21641883299549</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.04202654469896</v>
+        <v>25.04202654464996</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.88371187099415</v>
+        <v>29.8837118710012</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.05320511788466</v>
+        <v>37.05320511787193</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.37164668381615</v>
+        <v>40.37164668383036</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.77035415310309</v>
+        <v>13.77035415309433</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.02964162773094</v>
+        <v>31.02964162775254</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.06544972556605</v>
+        <v>37.06544972561164</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-9.250917744962635</v>
+        <v>-9.25091774497082</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.88007060986786</v>
+        <v>29.8800706098815</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.76566292325197</v>
+        <v>37.76566292331086</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.790528687744882</v>
+        <v>8.790528687713731</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.59853626937604</v>
+        <v>19.59853626937593</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.98968924689052</v>
+        <v>24.98968924694304</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.18128019185917</v>
+        <v>21.18128019187429</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.69814502705117</v>
+        <v>24.69814502704901</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-6.303750389547531</v>
+        <v>-6.303750389604716</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.82388520853146</v>
+        <v>32.82388520858831</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.70787141112373</v>
+        <v>40.70787141113328</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.7395176351414</v>
+        <v>11.73951763504726</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.54491064621743</v>
+        <v>22.54491064617275</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.93500946273923</v>
+        <v>27.93500946272252</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.12791266129932</v>
+        <v>24.12791266130614</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.64284074637442</v>
+        <v>27.64284074636316</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.46840592307251</v>
+        <v>31.46840592304363</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.31033349059305</v>
+        <v>36.31033349055429</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.47992026124587</v>
+        <v>43.47992026126406</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.79835261272581</v>
+        <v>46.79835261271103</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.19665998703351</v>
+        <v>20.19665998695382</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.45630319687564</v>
+        <v>37.45630319686256</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.49206894696033</v>
+        <v>43.49206894692429</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-2.824824882739222</v>
+        <v>-2.824824882831194</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.30667006874273</v>
+        <v>36.30667006878059</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.19223386307624</v>
+        <v>44.19223386304839</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.21745461479043</v>
+        <v>15.21745461481419</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.02574987526759</v>
+        <v>26.02574987525179</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.41686206322561</v>
+        <v>31.41686206320367</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.60847652391783</v>
+        <v>27.60847652393636</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.12556416951543</v>
+        <v>31.12556416949258</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-2.755134051388723</v>
+        <v>-2.755134051353821</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.37253663379772</v>
+        <v>36.37253663385854</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>44.25651357444212</v>
+        <v>44.25651357455399</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.28847022590514</v>
+        <v>15.28847022589775</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.09394497811229</v>
+        <v>26.09394497812139</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.48403487114956</v>
+        <v>31.48403487117889</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.67691208839051</v>
+        <v>27.67691208838812</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.19192730979239</v>
+        <v>31.19192730979307</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.01748865628645</v>
+        <v>35.01748865624813</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.85940958155595</v>
+        <v>39.85940958154401</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>47.02900329570423</v>
+        <v>47.02900329573504</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.34743350181554</v>
+        <v>50.34743350184601</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.74566825895363</v>
+        <v>23.74566825897648</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>41.00539013958985</v>
+        <v>41.00539013960406</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.0411485466318</v>
+        <v>47.04114854662362</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.7242427684560653</v>
+        <v>0.7242427684062704</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.85577280949224</v>
+        <v>39.85577280949178</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>47.74132734090267</v>
+        <v>47.74132734096816</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.76685856235486</v>
+        <v>18.76685856240931</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.57523556604383</v>
+        <v>29.57523556608862</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.96633883041784</v>
+        <v>34.96633883040829</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.15792731336035</v>
+        <v>31.15792731339809</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.67510209849524</v>
+        <v>34.67510209849388</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-9.330525397691304</v>
+        <v>-9.33052539770074</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.79684382109826</v>
+        <v>29.79684382106325</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>37.6809219354127</v>
+        <v>37.68092193544533</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.712399131703364</v>
+        <v>8.712399131645043</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.51767390403063</v>
+        <v>19.51767390401722</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.90786013316369</v>
+        <v>24.90786013315335</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.10061733629141</v>
+        <v>21.10061733617374</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.61545951957396</v>
+        <v>24.61545951952326</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.44110961767569</v>
+        <v>28.44110961757337</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.2827910764006</v>
+        <v>33.28279107638593</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>40.45232983509811</v>
+        <v>40.45232983505912</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>43.77080352954374</v>
+        <v>43.77080352951361</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.16926516656645</v>
+        <v>17.16926516658043</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.42874640513321</v>
+        <v>34.42874640517266</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.46461022747678</v>
+        <v>40.46461022741812</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-5.852080088706998</v>
+        <v>-5.852080088743833</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.27914846291094</v>
+        <v>33.2791484628774</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.16480416725017</v>
+        <v>41.16480416718377</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>12.189855855926</v>
+        <v>12.1898558559318</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.99803286637894</v>
+        <v>22.9980328663753</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.38923246588229</v>
+        <v>28.38923246587603</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.58070092308208</v>
+        <v>24.5807009230823</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.09770265915267</v>
+        <v>28.09770265917052</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.52457031539529</v>
+        <v>28.52457031537756</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.36746018430267</v>
+        <v>33.3674601843785</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.53842664323827</v>
+        <v>40.53842664319131</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>43.85762191099252</v>
+        <v>43.85762191102071</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.25315677010678</v>
+        <v>17.25315677017034</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.51560786276923</v>
+        <v>34.5156078628354</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.55264469274937</v>
+        <v>40.55264469269764</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.3717747496025368</v>
+        <v>-0.3717747495498998</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.75922300794184</v>
+        <v>38.75922300787875</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>46.64531325902578</v>
+        <v>46.6453132589894</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.67147956289159</v>
+        <v>17.67147956285294</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.47996444630905</v>
+        <v>28.47996444630269</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.87151139155742</v>
+        <v>33.87151139156435</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.06281858872114</v>
+        <v>30.06281858879549</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.58025935221031</v>
+        <v>33.58025935221849</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>37.40701718841422</v>
+        <v>37.40701718849448</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.25140229181341</v>
+        <v>42.25140229178214</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>49.42256445175065</v>
+        <v>49.42256445176452</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>52.74197850096493</v>
+        <v>52.74197850095891</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.13649638063566</v>
+        <v>26.13649638061565</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.39938423583726</v>
+        <v>43.39938423584954</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.4368665264584</v>
+        <v>49.43686652645624</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.95194692954794</v>
+        <v>34.951946929526</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.79507903620981</v>
+        <v>39.79507903622618</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.96613902659772</v>
+        <v>46.96613902656122</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.28532508302555</v>
+        <v>50.28532508298531</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.68045982117394</v>
+        <v>23.68045982113847</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>40.94326668231349</v>
+        <v>40.94326668231508</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.98026117449149</v>
+        <v>46.98026117444135</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>6.054709128636659</v>
+        <v>6.054709128629383</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>45.18621347855537</v>
+        <v>45.1862134785481</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>53.07227520646302</v>
+        <v>53.07227520647018</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.09879654237807</v>
+        <v>24.09879654240081</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.9075691008652</v>
+        <v>34.9075691008693</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.29907525415013</v>
+        <v>40.29907525419526</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.49040597922658</v>
+        <v>36.49040597921112</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>40.00806954817881</v>
+        <v>40.00806954815152</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>43.83478485612534</v>
+        <v>43.83478485613034</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>48.67941220144041</v>
+        <v>48.67941220141972</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>55.85066789155678</v>
+        <v>55.85066789155064</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.17007272735611</v>
+        <v>59.17007272735748</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.56419048834323</v>
+        <v>32.564190488299</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>49.82743410729199</v>
+        <v>49.82743410733474</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.86487405819389</v>
+        <v>55.86487405820128</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.5014810283476</v>
+        <v>38.50148102843343</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>43.34460646963782</v>
+        <v>43.34460646972423</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>50.51567340043584</v>
+        <v>50.51567340050087</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>53.83485731016071</v>
+        <v>53.8348573101747</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.22991943569718</v>
+        <v>27.22991943563363</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.49280497066093</v>
+        <v>44.49280497066366</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.52979211912498</v>
+        <v>50.52979211917193</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>9.603944678860898</v>
+        <v>9.603944678906259</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>48.73548411750266</v>
+        <v>48.73548411754268</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>56.62153657710712</v>
+        <v>56.62153657714362</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.64836839406269</v>
+        <v>27.64836839406303</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.45722269458213</v>
+        <v>38.45722269459168</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.84871991973148</v>
+        <v>43.84871991982948</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.04002467530336</v>
+        <v>40.04002467527971</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.55777538179007</v>
+        <v>43.55777538179689</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.38448685665173</v>
+        <v>47.38448685662263</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>52.22910753238796</v>
+        <v>52.22910753240217</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>59.40037016218787</v>
+        <v>59.40037016220936</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>62.71977284910281</v>
+        <v>62.71977284914283</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.11381799919377</v>
+        <v>36.11381799918195</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>53.37714029022197</v>
+        <v>53.37714029026995</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>59.41457289284983</v>
+        <v>59.4145728929185</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.92417033965228</v>
+        <v>31.92417033960885</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.76705631591381</v>
+        <v>36.76705631588106</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.9380682907107</v>
+        <v>43.93806829065534</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>47.25729569128293</v>
+        <v>47.25729569123564</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.65258471105938</v>
+        <v>20.6525847110554</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.91522958773089</v>
+        <v>37.91522958772237</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.9523221504096</v>
+        <v>43.95232215041722</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.027411199551238</v>
+        <v>3.027411199542598</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.15864915442205</v>
+        <v>42.15864915442023</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.04480279144423</v>
+        <v>50.04480279140807</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.07115504226078</v>
+        <v>21.07115504218632</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.87980935626808</v>
+        <v>31.87980935627968</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.27140291948251</v>
+        <v>37.27140291938474</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.46258764006757</v>
+        <v>33.46258764007052</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.98016530520329</v>
+        <v>36.98016530520158</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.80696553155974</v>
+        <v>40.80696553154348</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.65134674414833</v>
+        <v>45.65134674411195</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.82255442044584</v>
+        <v>52.82255442040537</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.14200060042947</v>
+        <v>56.14200060035625</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.53627263388455</v>
+        <v>29.53627263388069</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.79935427453404</v>
+        <v>46.79935427451073</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.83689229440972</v>
+        <v>52.83689229438278</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-18.11636504374997</v>
+        <v>-18.11636504376804</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.01081100985596</v>
+        <v>21.01081100985652</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.89490131455739</v>
+        <v>28.89490131460047</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.07421416882846188</v>
+        <v>-0.0742141688006086</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.73075727868854</v>
+        <v>10.73075727872833</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.12101043894734</v>
+        <v>16.12101043905318</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.31388330803475</v>
+        <v>12.31388330806692</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.82842783741171</v>
+        <v>15.82842783735032</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.65412961143306</v>
+        <v>19.65412961147831</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.49596414624068</v>
+        <v>24.4959641462608</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.6654056189733</v>
+        <v>31.66540561901331</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.9838703303933</v>
+        <v>34.98387033042991</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.382833893989982</v>
+        <v>8.382833894024429</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.64201297138789</v>
+        <v>25.64201297139857</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.67792574621876</v>
+        <v>31.6779257461975</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-14.63830867938816</v>
+        <v>-14.63830867944682</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.49272674554402</v>
+        <v>24.49272674554959</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.37839464654394</v>
+        <v>32.37839464656918</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.402853525584419</v>
+        <v>3.402853525579985</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.21072724093847</v>
+        <v>14.21072724094404</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.60199377959088</v>
+        <v>19.60199377966364</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.79357787798062</v>
+        <v>15.79357787801996</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.31028197925002</v>
+        <v>19.31028197915498</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-11.69124912389407</v>
+        <v>-11.69124912388213</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.43643348570663</v>
+        <v>27.43643348571322</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.32049525993637</v>
+        <v>35.32049525997957</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.351734715402699</v>
+        <v>6.351734715408043</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.1569938109235</v>
+        <v>17.15699381089462</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.54720617598832</v>
+        <v>22.54720617601095</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.74010255961218</v>
+        <v>18.74010255961866</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.2548698742454</v>
+        <v>22.25486987426098</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.08052911549271</v>
+        <v>26.08052911551033</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.92260589518344</v>
+        <v>30.92260589520015</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.09214089166699</v>
+        <v>38.09214089167472</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.41059638934064</v>
+        <v>41.41059638941226</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>14.80915985754439</v>
+        <v>14.80915985760976</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.06869466947217</v>
+        <v>32.06869466950513</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.10456509884284</v>
+        <v>38.10456509886444</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-8.212195683154391</v>
+        <v>-8.212195683136201</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.9193463384928</v>
+        <v>30.91934633863127</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.80498572171268</v>
+        <v>38.80498572183637</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>9.829799589451227</v>
+        <v>9.82979958943406</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.63796098261935</v>
+        <v>20.63796098264243</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.02918673368401</v>
+        <v>26.02918673369868</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.22079434855925</v>
+        <v>22.22079434857267</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.7377212584372</v>
+        <v>25.73772125850508</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-8.142603556988433</v>
+        <v>-8.142603556917834</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.98511414044549</v>
+        <v>30.98511414041639</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.86916665282001</v>
+        <v>38.86916665283968</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.900716538133565</v>
+        <v>9.900716538180404</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.70605737597248</v>
+        <v>20.70605737596668</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.09626081824513</v>
+        <v>26.09626081826593</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.28913121917299</v>
+        <v>22.28913121919777</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.8039856706481</v>
+        <v>25.80398567071245</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.62964108244375</v>
+        <v>29.62964108244171</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.47171122026396</v>
+        <v>34.4717112203557</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.64125315994011</v>
+        <v>41.64125316005675</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.95970651275718</v>
+        <v>44.95970651283642</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>18.35819736178416</v>
+        <v>18.35819736182407</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.61781084508141</v>
+        <v>35.61781084520283</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.65367393199483</v>
+        <v>41.6536739320569</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-4.663098795442011</v>
+        <v>-4.663098795378573</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.46847831645425</v>
+        <v>34.46847831659659</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.35410843702937</v>
+        <v>42.3541084371459</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.37923277783773</v>
+        <v>13.37923277789298</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.18747591509953</v>
+        <v>24.18747591510657</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.57869274289385</v>
+        <v>29.57869274294058</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.77027437976687</v>
+        <v>25.77027437979689</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.28728842955229</v>
+        <v>29.28728842960481</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-14.71805318409827</v>
+        <v>-14.71805318408951</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.40936304666809</v>
+        <v>24.40936304669606</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.29351673287226</v>
+        <v>32.29351673288727</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.324587158966324</v>
+        <v>3.324587158974964</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.12972801761271</v>
+        <v>14.12972801756825</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.52002779510383</v>
+        <v>19.52002779511145</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.71277817985322</v>
+        <v>15.71277817993996</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.22745959433928</v>
+        <v>19.22745959435315</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.0532037567317</v>
+        <v>23.05320375669783</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.89503442331693</v>
+        <v>27.89503442334774</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.06452140839167</v>
+        <v>35.06452140841736</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.3830182490907</v>
+        <v>38.38301824908001</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.78173597858199</v>
+        <v>11.78173597863395</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.04110882088253</v>
+        <v>29.04110882095256</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.07707732214817</v>
+        <v>35.07707732218284</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-11.23947994527225</v>
+        <v>-11.23947994526634</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.89179567689985</v>
+        <v>27.89179567691656</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.77752697022845</v>
+        <v>35.77752697024903</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.802171773752548</v>
+        <v>6.802171773797454</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.61021491830627</v>
+        <v>17.61021491828808</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.00152808057976</v>
+        <v>23.00152808052894</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.1929896890523</v>
+        <v>19.19298968904957</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.70983069127669</v>
+        <v>22.70983069124873</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.13680134850881</v>
+        <v>23.1368013485021</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.97984037343497</v>
+        <v>27.97984037346225</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.15075507486733</v>
+        <v>35.15075507490508</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.46997349125866</v>
+        <v>38.46997349132198</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.86576437598308</v>
+        <v>11.86576437596329</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.12810712148735</v>
+        <v>29.12810712145142</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.16524864750397</v>
+        <v>35.16524864748601</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-5.75840687918992</v>
+        <v>-5.758406879232211</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.37263797503465</v>
+        <v>33.3726379750151</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>41.25880379388173</v>
+        <v>41.25880379386228</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.28456324519141</v>
+        <v>12.28456324513104</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.09291428487188</v>
+        <v>23.09291428489144</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.48457477571878</v>
+        <v>28.48457477574846</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.67587514471097</v>
+        <v>24.6758751447112</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.19315519516215</v>
+        <v>28.19315519516601</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.02000710230686</v>
+        <v>32.02000710232539</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.86454136257385</v>
+        <v>36.86454136256805</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.03565177187238</v>
+        <v>44.03565177190615</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>47.35508895990517</v>
+        <v>47.35508895989574</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.74986282573263</v>
+        <v>20.74986282569023</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.01264235999292</v>
+        <v>38.0126423599786</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.05022933089788</v>
+        <v>44.05022933088389</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.56419810189141</v>
+        <v>29.56419810193483</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.40747936848175</v>
+        <v>34.40747936849232</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.5784876014244</v>
+        <v>41.57848760146112</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.89769680708696</v>
+        <v>44.89769680711322</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>18.29308757022375</v>
+        <v>18.29308757029764</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.55578608353608</v>
+        <v>35.55578608359588</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.5928852740318</v>
+        <v>41.59288527407284</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>0.6680971455089093</v>
+        <v>0.6680971455115241</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.79964859237509</v>
+        <v>39.7996485924325</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.68578588895139</v>
+        <v>47.68578588893138</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.71190037347719</v>
+        <v>18.71190037348333</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.52053908741686</v>
+        <v>29.52053908743153</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.91215878831144</v>
+        <v>34.91215878833043</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.10348268607413</v>
+        <v>31.10348268607675</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.6209855404436</v>
+        <v>34.62098554050635</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.44779492117914</v>
+        <v>38.44779492126167</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.29257142777055</v>
+        <v>43.29257142776532</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>50.46377536714635</v>
+        <v>50.46377536718728</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.78320334242403</v>
+        <v>53.78320334248872</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.17757708896136</v>
+        <v>27.17757708901092</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>44.44071238646654</v>
+        <v>44.440712386467</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.47825701926911</v>
+        <v>50.47825701927582</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.1137614432181</v>
+        <v>33.11376144322332</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.95703604459004</v>
+        <v>37.9570360446902</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>45.12805121779263</v>
+        <v>45.12805121783788</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.44725827700324</v>
+        <v>48.44725827705065</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.84257642629848</v>
+        <v>21.8425764263651</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.10535361411735</v>
+        <v>39.10535361414293</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.1424454613549</v>
+        <v>45.14244546134705</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>4.217361934404494</v>
+        <v>4.21736193434333</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.34894847073281</v>
+        <v>43.34894847075282</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>51.23507649965609</v>
+        <v>51.23507649968178</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.26150146850557</v>
+        <v>22.26150146846078</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.07022192461704</v>
+        <v>33.07022192464251</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.46183269801145</v>
+        <v>38.46183269803498</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.65313062629059</v>
+        <v>34.65313062632197</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.17072061816316</v>
+        <v>38.17072061817703</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.99752616640626</v>
+        <v>41.99752616637545</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.84229600356946</v>
+        <v>46.84229600357571</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>54.01350688248579</v>
+        <v>54.01350688248431</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>57.33293270932847</v>
+        <v>57.33293270938111</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.72723384360472</v>
+        <v>30.72723384361302</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.99044781311898</v>
+        <v>47.99044781310045</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>54.02798509848844</v>
+        <v>54.02798509857178</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.53639245441968</v>
+        <v>26.53639245437944</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.37942758660654</v>
+        <v>31.37942758659881</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.55038780423979</v>
+        <v>38.55038780428742</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.86963835401207</v>
+        <v>41.86963835400627</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>15.26518339825759</v>
+        <v>15.26518339826157</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.52771992797693</v>
+        <v>32.52771992792498</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.56491718874952</v>
+        <v>38.56491718869177</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-2.359229844901392</v>
+        <v>-2.3592298449189</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.77205520754512</v>
+        <v>36.77205520761265</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.65828441362612</v>
+        <v>44.65828441368444</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.68422981255617</v>
+        <v>15.68422981255208</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.49275028312184</v>
+        <v>26.49275028309535</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.88445739373151</v>
+        <v>31.88445739365363</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.07563528415324</v>
+        <v>28.07563528412118</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.59305223620095</v>
+        <v>31.59305223620709</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.4199465349318</v>
+        <v>35.41994653489269</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.26447690485588</v>
+        <v>40.2644769048452</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>47.43563283071239</v>
+        <v>47.43563283065362</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.75510215013685</v>
+        <v>50.75510215013014</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.14963016837248</v>
+        <v>24.14963016837282</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.41260348830508</v>
+        <v>41.41260348831429</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.4502461898262</v>
+        <v>47.45024618981529</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-6.591300561862226</v>
+        <v>-6.591300561806179</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.53744341393678</v>
+        <v>32.53744341401807</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>40.42225236359445</v>
+        <v>40.42225236360775</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>11.45239490724191</v>
+        <v>11.45239490729841</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.25774464262656</v>
+        <v>22.25774464268784</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.64851730026157</v>
+        <v>27.64851730034161</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.84124026166569</v>
+        <v>23.84124026174004</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.35583620017655</v>
+        <v>27.35583620016757</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.18195788932849</v>
+        <v>31.18195788934975</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.02356668506707</v>
+        <v>36.02356668512687</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>43.19330859563775</v>
+        <v>43.19330859566548</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.51214459939786</v>
+        <v>46.51214459941241</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.90955296698496</v>
+        <v>19.90955296692596</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.16936605263436</v>
+        <v>37.1693660525649</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.20587651289111</v>
+        <v>43.20587651289406</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-3.109621094202794</v>
+        <v>-3.109621094161298</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.02298242944482</v>
+        <v>36.02298242947472</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.90936913839414</v>
+        <v>43.90936913840335</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>14.93308590445304</v>
+        <v>14.93308590443849</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.74133805873748</v>
+        <v>25.74133805871168</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.13312420953935</v>
+        <v>31.13312420957266</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.32455827861872</v>
+        <v>27.32455827857098</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.84131390799405</v>
+        <v>30.84131390804407</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-0.1656611902700433</v>
+        <v>-0.1656611901936458</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>38.96358936386821</v>
+        <v>38.96358936390448</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>46.84836978772773</v>
+        <v>46.84836978775797</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.87886730139996</v>
+        <v>17.87886730133528</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.68450469860045</v>
+        <v>28.68450469861625</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.07523656167996</v>
+        <v>34.07523656172464</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.26798303935266</v>
+        <v>30.26798303936425</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.78280177428792</v>
+        <v>33.78280177427825</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.60888093065114</v>
+        <v>37.60888093066421</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.45073197930674</v>
+        <v>42.45073197924035</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>49.62056741819902</v>
+        <v>49.6205674182379</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.93939420958054</v>
+        <v>52.93939420964784</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.33640245784591</v>
+        <v>26.33640245782851</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.59657129481138</v>
+        <v>43.5965712948265</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.63303941119239</v>
+        <v>49.63303941120034</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3.317015411509942</v>
+        <v>3.317015411553257</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.45012555400353</v>
+        <v>42.45012555402786</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.33648374969096</v>
+        <v>50.33648374974746</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.36055553616893</v>
+        <v>21.3605555360574</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.16909538165044</v>
+        <v>32.16909538173581</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.56084074554724</v>
+        <v>37.56084074554849</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.75229833418837</v>
+        <v>33.75229833422372</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.26927678321044</v>
+        <v>37.26927678324148</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>3.383197127324252</v>
+        <v>3.383197127355743</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>42.51248277121397</v>
+        <v>42.51248277123386</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>50.3972539338165</v>
+        <v>50.39725393377307</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.42806189243913</v>
+        <v>21.42806189247335</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.23378103598372</v>
+        <v>32.2337810360732</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.62450397591692</v>
+        <v>37.62450397606574</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.81722447132472</v>
+        <v>33.81722447144148</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>37.33213034755136</v>
+        <v>37.33213034759365</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>41.15820567410185</v>
+        <v>41.15820567417177</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.00005007960294</v>
+        <v>46.00005007963478</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.16989246163723</v>
+        <v>53.16989246172864</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.48871710846322</v>
+        <v>56.48871710847368</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.88565273363145</v>
+        <v>29.88565273370727</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.14590024611516</v>
+        <v>47.14590024616029</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.18236102002959</v>
+        <v>53.1823610200687</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>6.866325063057729</v>
+        <v>6.866325063196655</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.99947029811312</v>
+        <v>45.99947029818065</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>53.88581923193112</v>
+        <v>53.88581923194795</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.91020150578709</v>
+        <v>24.91020150571023</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.7188231000257</v>
+        <v>35.71882310005969</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.11055954017718</v>
+        <v>41.11055954024221</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.3019911506766</v>
+        <v>37.30199115073572</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>40.8190567445165</v>
+        <v>40.81905674453856</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.192679151482025</v>
+        <v>-3.192679151497146</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.93630501387975</v>
+        <v>35.93630501394148</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>43.82117734989106</v>
+        <v>43.82117734986571</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>14.85150581440701</v>
+        <v>14.85150581438916</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.65702497001337</v>
+        <v>25.65702497005009</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.04784424799243</v>
+        <v>31.04784424802006</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.24044471959553</v>
+        <v>27.24044471958507</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.7551775511248</v>
+        <v>30.75517755116221</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.58134163082423</v>
+        <v>34.58134163079274</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.422946552447</v>
+        <v>39.42294655244768</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>46.59273397698541</v>
+        <v>46.59273397696381</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.91160211265276</v>
+        <v>49.91160211266572</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.30876463153015</v>
+        <v>23.30876463148297</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.5687714925424</v>
+        <v>40.5687714925707</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.60533768283449</v>
+        <v>46.60533768284245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.2895172271064439</v>
+        <v>0.2895172271530555</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.4223609606106</v>
+        <v>39.42236096059833</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.30881106679578</v>
+        <v>47.30881106680579</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.33271376891071</v>
+        <v>18.3327137688492</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.14113536151615</v>
+        <v>29.14113536158425</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.53296813897555</v>
+        <v>34.53296813901738</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.7242797141248</v>
+        <v>30.7242797141347</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.24117225201041</v>
+        <v>34.24117225198938</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.66825329203425</v>
+        <v>34.66825329204073</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>39.51106650009694</v>
+        <v>39.51106650006818</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>46.68228171841679</v>
+        <v>46.68228171837802</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.00187150645752</v>
+        <v>50.00187150640147</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.39610692528561</v>
+        <v>23.39610692526981</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>40.6590838398414</v>
+        <v>40.65908383977148</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>46.69682318838761</v>
+        <v>46.69682318832042</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>5.769755164832532</v>
+        <v>5.76975516486641</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>44.90236809781709</v>
+        <v>44.90236809785131</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>52.78925276389225</v>
+        <v>52.78925276391374</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.81427011082769</v>
+        <v>23.8142701108643</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.62299959610391</v>
+        <v>34.62299959617576</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.01517972290105</v>
+        <v>40.01517972297688</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.20633001938495</v>
+        <v>36.2063300193912</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.72366161447223</v>
+        <v>39.72366161448133</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.55093355476924</v>
+        <v>43.55093355476879</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>48.39524206818794</v>
+        <v>48.39524206819908</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>55.56665299997326</v>
+        <v>55.56665300000623</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.88646156849904</v>
+        <v>58.88646156848347</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.27967994360654</v>
+        <v>32.2796799436461</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.54309365067604</v>
+        <v>49.54309365072231</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.58127847252274</v>
+        <v>55.58127847257288</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>41.09617364125415</v>
+        <v>41.09617364122107</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.93922909831053</v>
+        <v>45.93922909831656</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.11053785238516</v>
+        <v>53.11053785239744</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.43011843158865</v>
+        <v>56.43011843149407</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.8239537048247</v>
+        <v>29.8239537047906</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>47.0872864039942</v>
+        <v>47.08728640397294</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.12498341868252</v>
+        <v>53.12498341868286</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.19678271275723</v>
+        <v>12.19678271275018</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.32990226042148</v>
+        <v>51.3299022604275</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>59.21675840893977</v>
+        <v>59.21675840890418</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.24213082097185</v>
+        <v>30.24213082090603</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.05114799401917</v>
+        <v>41.05114799397677</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.4432873314106</v>
+        <v>46.44328733137854</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.63446115988518</v>
+        <v>42.63446115985835</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.15201556979343</v>
+        <v>46.15201556981788</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.97924498396526</v>
+        <v>49.97924498393513</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.82379575095024</v>
+        <v>54.82379575095763</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>61.99530021707517</v>
+        <v>61.99530021707221</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.31509957442893</v>
+        <v>65.31509957440835</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.70791780667889</v>
+        <v>38.70791780660238</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>55.97168729375869</v>
+        <v>55.97168729370264</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>62.00982977925185</v>
+        <v>62.00982977925196</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.64594977251102</v>
+        <v>44.64594977249988</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>49.48899856365438</v>
+        <v>49.48899856361902</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.66031425807819</v>
+        <v>56.66031425810638</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>59.97989269076515</v>
+        <v>59.97989269076845</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.37365534600553</v>
+        <v>33.37365534601554</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>50.63706672345086</v>
+        <v>50.63706672351611</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>56.67475639509428</v>
+        <v>56.67475639517193</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.74626027033696</v>
+        <v>15.74626027043576</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>54.87941490972969</v>
+        <v>54.87941490976891</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>62.76626179110076</v>
+        <v>62.76626179115158</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.79194470166351</v>
+        <v>33.79194470160519</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.60104362156244</v>
+        <v>44.60104362154527</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.99317403108648</v>
+        <v>49.99317403113139</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.18432188966392</v>
+        <v>46.18432188968734</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>49.70196344202168</v>
+        <v>49.70196344201997</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.52918902344595</v>
+        <v>53.52918902347506</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>58.37373312039608</v>
+        <v>58.37373312040813</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>65.54524452596547</v>
+        <v>65.54524452595524</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>68.86504173493233</v>
+        <v>68.86504173494654</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>42.25778735014319</v>
+        <v>42.25778735017036</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.52163551381727</v>
+        <v>59.52163551392243</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.55977065201012</v>
+        <v>65.55977065200602</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.06815403208441</v>
+        <v>38.06815403213614</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.91096334095096</v>
+        <v>42.91096334096369</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.08222407691835</v>
+        <v>50.0822240769204</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.4018460012295</v>
+        <v>53.40184600121779</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.7958355642578</v>
+        <v>26.79583556417583</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.05900627399342</v>
+        <v>44.05900627403435</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.09680136088571</v>
+        <v>50.09680136084035</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.169241793321589</v>
+        <v>9.169241793226661</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.3020949370549</v>
+        <v>48.30209493699908</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>56.18904299553662</v>
+        <v>56.18904299550843</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.2142463010465</v>
+        <v>27.21424630102388</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.02314522630422</v>
+        <v>38.02314522637437</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.41537197589082</v>
+        <v>43.41537197592766</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.60639978965071</v>
+        <v>39.60639978965708</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.12386829416448</v>
+        <v>43.12386829419154</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.95118262858216</v>
+        <v>46.95118262856977</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.79548724488575</v>
+        <v>51.79548724485187</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>58.96694369471822</v>
+        <v>58.96694369472368</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>62.28678439719158</v>
+        <v>62.28678439718556</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.67975690980313</v>
+        <v>35.67975690970627</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.94336441360508</v>
+        <v>52.94336441358371</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.98160496993125</v>
+        <v>58.98160496987214</v>
       </c>
     </row>
   </sheetData>
